--- a/raw_data/umd/2023/RL_2023-06-01_SCav.xlsx
+++ b/raw_data/umd/2023/RL_2023-06-01_SCav.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\CSE\Llo\LAB-stern007\AQ400 Data files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samblackburn/Documents/lshabs/raw_data/umd/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB968BE-9A33-430C-8F50-FED185C14EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143A6116-B2C4-2A49-9F54-96B58E54E2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4965" yWindow="420" windowWidth="21495" windowHeight="13920" xr2:uid="{DA371476-124F-4470-9C8F-75A4A9137A10}"/>
+    <workbookView xWindow="4960" yWindow="760" windowWidth="21500" windowHeight="13920" xr2:uid="{DA371476-124F-4470-9C8F-75A4A9137A10}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -151,9 +151,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -191,7 +191,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -297,7 +297,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -439,7 +439,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -447,121 +447,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB08CC8-5C8C-48CA-968D-E4109296E519}">
-  <dimension ref="A1:R71"/>
+  <dimension ref="A1:R70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:18" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:18" ht="75" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>45098.547939814816</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5.5040550000000001</v>
+      </c>
+      <c r="C2" s="1">
+        <v>15.20213</v>
+      </c>
+      <c r="D2" s="1">
+        <v>68.672330000000002</v>
+      </c>
+      <c r="E2" s="1">
+        <v>100.726</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4.6541619999999999E-2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.99986660000000005</v>
+      </c>
+      <c r="H2" s="1">
+        <v>6.5471310000000005E-2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.89467549999999996</v>
+      </c>
+      <c r="J2" s="1">
+        <v>8.3389480000000002</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.1562598</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.94403870000000001</v>
+      </c>
+      <c r="M2" s="1">
+        <v>9.6300209999999997E-2</v>
+      </c>
+      <c r="N2" s="1">
+        <v>16.696079999999998</v>
+      </c>
+      <c r="O2" s="1">
+        <v>999.24800000000005</v>
+      </c>
+      <c r="P2" s="1">
+        <v>46.90469143</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>-91.036180869999995</v>
+      </c>
+      <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>45098.547939814816</v>
+        <v>45098.547951388886</v>
       </c>
       <c r="B3" s="1">
-        <v>5.5040550000000001</v>
+        <v>5.4995279999999998</v>
       </c>
       <c r="C3" s="1">
-        <v>15.20213</v>
+        <v>15.19932</v>
       </c>
       <c r="D3" s="1">
-        <v>68.672330000000002</v>
+        <v>68.672259999999994</v>
       </c>
       <c r="E3" s="1">
-        <v>100.726</v>
+        <v>100.7312</v>
       </c>
       <c r="F3" s="1">
-        <v>4.6541619999999999E-2</v>
+        <v>4.6543889999999997E-2</v>
       </c>
       <c r="G3" s="1">
-        <v>0.99986660000000005</v>
+        <v>0.9998667</v>
       </c>
       <c r="H3" s="1">
-        <v>6.5471310000000005E-2</v>
+        <v>6.5474649999999995E-2</v>
       </c>
       <c r="I3" s="1">
-        <v>0.89467549999999996</v>
+        <v>0.89362569999999997</v>
       </c>
       <c r="J3" s="1">
-        <v>8.3389480000000002</v>
+        <v>8.3370529999999992</v>
       </c>
       <c r="K3" s="1">
-        <v>0.1562598</v>
+        <v>0.15578059999999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0.94403870000000001</v>
+        <v>0.94080920000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>9.6300209999999997E-2</v>
+        <v>9.5265249999999996E-2</v>
       </c>
       <c r="N3" s="1">
-        <v>16.696079999999998</v>
+        <v>16.695889999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>999.24800000000005</v>
+        <v>999.24839999999995</v>
       </c>
       <c r="P3" s="1">
         <v>46.90469143</v>
@@ -573,49 +624,49 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>45098.547951388886</v>
+        <v>45098.547962962963</v>
       </c>
       <c r="B4" s="1">
-        <v>5.4995279999999998</v>
+        <v>5.4991019999999997</v>
       </c>
       <c r="C4" s="1">
-        <v>15.19932</v>
+        <v>15.18623</v>
       </c>
       <c r="D4" s="1">
-        <v>68.672259999999994</v>
+        <v>68.761669999999995</v>
       </c>
       <c r="E4" s="1">
-        <v>100.7312</v>
+        <v>100.86450000000001</v>
       </c>
       <c r="F4" s="1">
-        <v>4.6543889999999997E-2</v>
+        <v>4.6607589999999997E-2</v>
       </c>
       <c r="G4" s="1">
-        <v>0.9998667</v>
+        <v>0.99986679999999994</v>
       </c>
       <c r="H4" s="1">
-        <v>6.5474649999999995E-2</v>
+        <v>6.5561869999999994E-2</v>
       </c>
       <c r="I4" s="1">
-        <v>0.89362569999999997</v>
+        <v>0.83062239999999998</v>
       </c>
       <c r="J4" s="1">
-        <v>8.3370529999999992</v>
+        <v>8.3299669999999999</v>
       </c>
       <c r="K4" s="1">
-        <v>0.15578059999999999</v>
+        <v>9.4761739999999997E-2</v>
       </c>
       <c r="L4" s="1">
-        <v>0.94080920000000001</v>
+        <v>0.84117909999999996</v>
       </c>
       <c r="M4" s="1">
-        <v>9.5265249999999996E-2</v>
+        <v>6.5074149999999997E-2</v>
       </c>
       <c r="N4" s="1">
-        <v>16.695889999999999</v>
+        <v>16.688199999999998</v>
       </c>
       <c r="O4" s="1">
-        <v>999.24839999999995</v>
+        <v>999.24900000000002</v>
       </c>
       <c r="P4" s="1">
         <v>46.90469143</v>
@@ -627,103 +678,103 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>45098.547962962963</v>
+        <v>45098.547974537039</v>
       </c>
       <c r="B5" s="1">
-        <v>5.4991019999999997</v>
+        <v>5.498621</v>
       </c>
       <c r="C5" s="1">
-        <v>15.18623</v>
+        <v>15.181570000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>68.761669999999995</v>
+        <v>68.767120000000006</v>
       </c>
       <c r="E5" s="1">
-        <v>100.86450000000001</v>
+        <v>100.87479999999999</v>
       </c>
       <c r="F5" s="1">
-        <v>4.6607589999999997E-2</v>
+        <v>4.6612420000000002E-2</v>
       </c>
       <c r="G5" s="1">
         <v>0.99986679999999994</v>
       </c>
       <c r="H5" s="1">
-        <v>6.5561869999999994E-2</v>
+        <v>6.5568570000000007E-2</v>
       </c>
       <c r="I5" s="1">
-        <v>0.83062239999999998</v>
+        <v>0.82493950000000005</v>
       </c>
       <c r="J5" s="1">
-        <v>8.3299669999999999</v>
+        <v>8.3288089999999997</v>
       </c>
       <c r="K5" s="1">
-        <v>9.4761739999999997E-2</v>
+        <v>9.0916120000000003E-2</v>
       </c>
       <c r="L5" s="1">
-        <v>0.84117909999999996</v>
+        <v>0.83370500000000003</v>
       </c>
       <c r="M5" s="1">
-        <v>6.5074149999999997E-2</v>
+        <v>6.2783169999999999E-2</v>
       </c>
       <c r="N5" s="1">
-        <v>16.688199999999998</v>
+        <v>16.68778</v>
       </c>
       <c r="O5" s="1">
-        <v>999.24900000000002</v>
+        <v>999.24950000000001</v>
       </c>
       <c r="P5" s="1">
-        <v>46.90469143</v>
+        <v>46.90469049</v>
       </c>
       <c r="Q5" s="1">
-        <v>-91.036180869999995</v>
+        <v>-91.036196390000001</v>
       </c>
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>45098.547974537039</v>
+        <v>45098.547986111109</v>
       </c>
       <c r="B6" s="1">
-        <v>5.498621</v>
+        <v>5.4981400000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>15.181570000000001</v>
+        <v>15.1769</v>
       </c>
       <c r="D6" s="1">
-        <v>68.767120000000006</v>
+        <v>68.772580000000005</v>
       </c>
       <c r="E6" s="1">
-        <v>100.87479999999999</v>
+        <v>100.88509999999999</v>
       </c>
       <c r="F6" s="1">
-        <v>4.6612420000000002E-2</v>
+        <v>4.6617239999999997E-2</v>
       </c>
       <c r="G6" s="1">
         <v>0.99986679999999994</v>
       </c>
       <c r="H6" s="1">
-        <v>6.5568570000000007E-2</v>
+        <v>6.5575270000000005E-2</v>
       </c>
       <c r="I6" s="1">
-        <v>0.82493950000000005</v>
+        <v>0.8192566</v>
       </c>
       <c r="J6" s="1">
-        <v>8.3288089999999997</v>
+        <v>8.3276500000000002</v>
       </c>
       <c r="K6" s="1">
-        <v>9.0916120000000003E-2</v>
+        <v>8.7070499999999995E-2</v>
       </c>
       <c r="L6" s="1">
-        <v>0.83370500000000003</v>
+        <v>0.82623080000000004</v>
       </c>
       <c r="M6" s="1">
-        <v>6.2783169999999999E-2</v>
+        <v>6.0492190000000001E-2</v>
       </c>
       <c r="N6" s="1">
-        <v>16.68778</v>
+        <v>16.687349999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>999.24950000000001</v>
+        <v>999.24980000000005</v>
       </c>
       <c r="P6" s="1">
         <v>46.90469049</v>
@@ -735,49 +786,49 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>45098.547986111109</v>
+        <v>45098.547997685186</v>
       </c>
       <c r="B7" s="1">
-        <v>5.4981400000000002</v>
+        <v>174.1319</v>
       </c>
       <c r="C7" s="1">
-        <v>15.1769</v>
+        <v>15.370419999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>68.772580000000005</v>
+        <v>29.343150000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>100.88509999999999</v>
+        <v>43.057110000000002</v>
       </c>
       <c r="F7" s="1">
-        <v>4.6617239999999997E-2</v>
+        <v>1.8900179999999999E-2</v>
       </c>
       <c r="G7" s="1">
-        <v>0.99986679999999994</v>
+        <v>0.99984569999999995</v>
       </c>
       <c r="H7" s="1">
-        <v>6.5575270000000005E-2</v>
+        <v>2.7987100000000001E-2</v>
       </c>
       <c r="I7" s="1">
-        <v>0.8192566</v>
+        <v>0.93849320000000003</v>
       </c>
       <c r="J7" s="1">
-        <v>8.3276500000000002</v>
+        <v>8.334308</v>
       </c>
       <c r="K7" s="1">
-        <v>8.7070499999999995E-2</v>
+        <v>0.17240430000000001</v>
       </c>
       <c r="L7" s="1">
-        <v>0.82623080000000004</v>
+        <v>1.022195</v>
       </c>
       <c r="M7" s="1">
-        <v>6.0492190000000001E-2</v>
+        <v>0.12080050000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>16.687349999999999</v>
+        <v>16.797630000000002</v>
       </c>
       <c r="O7" s="1">
-        <v>999.24980000000005</v>
+        <v>999.28440000000001</v>
       </c>
       <c r="P7" s="1">
         <v>46.90469049</v>
@@ -789,49 +840,49 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>45098.547997685186</v>
+        <v>45098.548009259262</v>
       </c>
       <c r="B8" s="1">
-        <v>174.1319</v>
+        <v>183.3732</v>
       </c>
       <c r="C8" s="1">
-        <v>15.370419999999999</v>
+        <v>15.38078</v>
       </c>
       <c r="D8" s="1">
-        <v>29.343150000000001</v>
+        <v>27.1844</v>
       </c>
       <c r="E8" s="1">
-        <v>43.057110000000002</v>
+        <v>39.891109999999998</v>
       </c>
       <c r="F8" s="1">
-        <v>1.8900179999999999E-2</v>
+        <v>1.7382709999999999E-2</v>
       </c>
       <c r="G8" s="1">
-        <v>0.99984569999999995</v>
+        <v>0.99984459999999997</v>
       </c>
       <c r="H8" s="1">
-        <v>2.7987100000000001E-2</v>
+        <v>2.5929219999999999E-2</v>
       </c>
       <c r="I8" s="1">
-        <v>0.93849320000000003</v>
+        <v>0.94362820000000003</v>
       </c>
       <c r="J8" s="1">
-        <v>8.334308</v>
+        <v>8.3345040000000008</v>
       </c>
       <c r="K8" s="1">
-        <v>0.17240430000000001</v>
+        <v>0.17569170000000001</v>
       </c>
       <c r="L8" s="1">
-        <v>1.022195</v>
+        <v>1.030662</v>
       </c>
       <c r="M8" s="1">
-        <v>0.12080050000000001</v>
+        <v>0.12341679999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>16.797630000000002</v>
+        <v>16.8035</v>
       </c>
       <c r="O8" s="1">
-        <v>999.28440000000001</v>
+        <v>999.28629999999998</v>
       </c>
       <c r="P8" s="1">
         <v>46.90469049</v>
@@ -843,49 +894,49 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>45098.548009259262</v>
+        <v>45098.548020833332</v>
       </c>
       <c r="B9" s="1">
-        <v>183.3732</v>
+        <v>192.61449999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>15.38078</v>
+        <v>15.39115</v>
       </c>
       <c r="D9" s="1">
-        <v>27.1844</v>
+        <v>25.025649999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>39.891109999999998</v>
+        <v>36.725110000000001</v>
       </c>
       <c r="F9" s="1">
-        <v>1.7382709999999999E-2</v>
+        <v>1.5865230000000001E-2</v>
       </c>
       <c r="G9" s="1">
-        <v>0.99984459999999997</v>
+        <v>0.99984340000000005</v>
       </c>
       <c r="H9" s="1">
-        <v>2.5929219999999999E-2</v>
+        <v>2.387133E-2</v>
       </c>
       <c r="I9" s="1">
-        <v>0.94362820000000003</v>
+        <v>0.94876309999999997</v>
       </c>
       <c r="J9" s="1">
-        <v>8.3345040000000008</v>
+        <v>8.3346999999999998</v>
       </c>
       <c r="K9" s="1">
-        <v>0.17569170000000001</v>
+        <v>0.1789791</v>
       </c>
       <c r="L9" s="1">
-        <v>1.030662</v>
+        <v>1.039129</v>
       </c>
       <c r="M9" s="1">
-        <v>0.12341679999999999</v>
+        <v>0.12603320000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>16.8035</v>
+        <v>16.809360000000002</v>
       </c>
       <c r="O9" s="1">
-        <v>999.28629999999998</v>
+        <v>999.28819999999996</v>
       </c>
       <c r="P9" s="1">
         <v>46.90469049</v>
@@ -897,103 +948,103 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>45098.548020833332</v>
+        <v>45098.548032407409</v>
       </c>
       <c r="B10" s="1">
-        <v>192.61449999999999</v>
+        <v>206.29310000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>15.39115</v>
+        <v>15.063190000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>25.025649999999999</v>
+        <v>27.292899999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>36.725110000000001</v>
+        <v>40.003520000000002</v>
       </c>
       <c r="F10" s="1">
-        <v>1.5865230000000001E-2</v>
+        <v>1.7435220000000001E-2</v>
       </c>
       <c r="G10" s="1">
-        <v>0.99984340000000005</v>
+        <v>0.99984170000000006</v>
       </c>
       <c r="H10" s="1">
-        <v>2.387133E-2</v>
+        <v>5.9138299999999998E-2</v>
       </c>
       <c r="I10" s="1">
-        <v>0.94876309999999997</v>
+        <v>0.95688189999999995</v>
       </c>
       <c r="J10" s="1">
-        <v>8.3346999999999998</v>
+        <v>8.3666199999999993</v>
       </c>
       <c r="K10" s="1">
-        <v>0.1789791</v>
+        <v>0.30437140000000001</v>
       </c>
       <c r="L10" s="1">
-        <v>1.039129</v>
+        <v>2.5966130000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>0.12603320000000001</v>
+        <v>0.60199270000000005</v>
       </c>
       <c r="N10" s="1">
-        <v>16.809360000000002</v>
+        <v>16.802810000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>999.28819999999996</v>
+        <v>999.27120000000002</v>
       </c>
       <c r="P10" s="1">
-        <v>46.90469049</v>
+        <v>46.90468139</v>
       </c>
       <c r="Q10" s="1">
-        <v>-91.036196390000001</v>
+        <v>-91.036204089999998</v>
       </c>
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>45098.548032407409</v>
+        <v>45098.548043981478</v>
       </c>
       <c r="B11" s="1">
-        <v>206.29310000000001</v>
+        <v>210.90219999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>15.063190000000001</v>
+        <v>15.049670000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>27.292899999999999</v>
+        <v>26.5136</v>
       </c>
       <c r="E11" s="1">
-        <v>40.003520000000002</v>
+        <v>38.858069999999998</v>
       </c>
       <c r="F11" s="1">
-        <v>1.7435220000000001E-2</v>
+        <v>1.6886120000000001E-2</v>
       </c>
       <c r="G11" s="1">
-        <v>0.99984170000000006</v>
+        <v>0.99984119999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>5.9138299999999998E-2</v>
+        <v>6.0202609999999997E-2</v>
       </c>
       <c r="I11" s="1">
-        <v>0.95688189999999995</v>
+        <v>0.95999650000000003</v>
       </c>
       <c r="J11" s="1">
-        <v>8.3666199999999993</v>
+        <v>8.3685019999999994</v>
       </c>
       <c r="K11" s="1">
-        <v>0.30437140000000001</v>
+        <v>0.31313220000000003</v>
       </c>
       <c r="L11" s="1">
-        <v>2.5966130000000001</v>
+        <v>2.6860460000000002</v>
       </c>
       <c r="M11" s="1">
-        <v>0.60199270000000005</v>
+        <v>0.62933249999999996</v>
       </c>
       <c r="N11" s="1">
-        <v>16.802810000000001</v>
+        <v>16.80498</v>
       </c>
       <c r="O11" s="1">
-        <v>999.27120000000002</v>
+        <v>999.27110000000005</v>
       </c>
       <c r="P11" s="1">
         <v>46.90468139</v>
@@ -1005,49 +1056,49 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>45098.548043981478</v>
+        <v>45098.548055555555</v>
       </c>
       <c r="B12" s="1">
-        <v>210.90219999999999</v>
+        <v>215.51140000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>15.049670000000001</v>
+        <v>15.036149999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>26.5136</v>
+        <v>25.734310000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>38.858069999999998</v>
+        <v>37.712609999999998</v>
       </c>
       <c r="F12" s="1">
-        <v>1.6886120000000001E-2</v>
+        <v>1.6337029999999999E-2</v>
       </c>
       <c r="G12" s="1">
-        <v>0.99984119999999999</v>
+        <v>0.99984059999999997</v>
       </c>
       <c r="H12" s="1">
-        <v>6.0202609999999997E-2</v>
+        <v>6.1266920000000002E-2</v>
       </c>
       <c r="I12" s="1">
-        <v>0.95999650000000003</v>
+        <v>0.96311119999999995</v>
       </c>
       <c r="J12" s="1">
-        <v>8.3685019999999994</v>
+        <v>8.3703839999999996</v>
       </c>
       <c r="K12" s="1">
-        <v>0.31313220000000003</v>
+        <v>0.32189289999999998</v>
       </c>
       <c r="L12" s="1">
-        <v>2.6860460000000002</v>
+        <v>2.7754789999999998</v>
       </c>
       <c r="M12" s="1">
-        <v>0.62933249999999996</v>
+        <v>0.65667240000000004</v>
       </c>
       <c r="N12" s="1">
-        <v>16.80498</v>
+        <v>16.80714</v>
       </c>
       <c r="O12" s="1">
-        <v>999.27110000000005</v>
+        <v>999.27089999999998</v>
       </c>
       <c r="P12" s="1">
         <v>46.90468139</v>
@@ -1059,49 +1110,49 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>45098.548055555555</v>
+        <v>45098.548067129632</v>
       </c>
       <c r="B13" s="1">
-        <v>215.51140000000001</v>
+        <v>33.831429999999997</v>
       </c>
       <c r="C13" s="1">
-        <v>15.036149999999999</v>
+        <v>10.533530000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>25.734310000000001</v>
+        <v>61.156790000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>37.712609999999998</v>
+        <v>92.828410000000005</v>
       </c>
       <c r="F13" s="1">
-        <v>1.6337029999999999E-2</v>
+        <v>4.2769540000000002E-2</v>
       </c>
       <c r="G13" s="1">
-        <v>0.99984059999999997</v>
+        <v>0.9998553</v>
       </c>
       <c r="H13" s="1">
-        <v>6.1266920000000002E-2</v>
+        <v>6.4333989999999994E-2</v>
       </c>
       <c r="I13" s="1">
-        <v>0.96311119999999995</v>
+        <v>0.73961529999999998</v>
       </c>
       <c r="J13" s="1">
-        <v>8.3703839999999996</v>
+        <v>8.4170689999999997</v>
       </c>
       <c r="K13" s="1">
-        <v>0.32189289999999998</v>
+        <v>1.0796570000000001</v>
       </c>
       <c r="L13" s="1">
-        <v>2.7754789999999998</v>
+        <v>3.2191390000000002</v>
       </c>
       <c r="M13" s="1">
-        <v>0.65667240000000004</v>
+        <v>0.80585899999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>16.80714</v>
+        <v>16.797419999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>999.27089999999998</v>
+        <v>999.27030000000002</v>
       </c>
       <c r="P13" s="1">
         <v>46.90468139</v>
@@ -1113,103 +1164,103 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>45098.548067129632</v>
+        <v>45098.548078703701</v>
       </c>
       <c r="B14" s="1">
-        <v>33.831429999999997</v>
+        <v>24.491910000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>10.533530000000001</v>
+        <v>10.284140000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>61.156790000000001</v>
+        <v>63.086889999999997</v>
       </c>
       <c r="E14" s="1">
-        <v>92.828410000000005</v>
+        <v>95.828140000000005</v>
       </c>
       <c r="F14" s="1">
-        <v>4.2769540000000002E-2</v>
+        <v>4.4208110000000002E-2</v>
       </c>
       <c r="G14" s="1">
-        <v>0.9998553</v>
+        <v>0.99985610000000003</v>
       </c>
       <c r="H14" s="1">
-        <v>6.4333989999999994E-2</v>
+        <v>6.5284900000000007E-2</v>
       </c>
       <c r="I14" s="1">
-        <v>0.73961529999999998</v>
+        <v>0.72784760000000004</v>
       </c>
       <c r="J14" s="1">
-        <v>8.4170689999999997</v>
+        <v>8.4203139999999994</v>
       </c>
       <c r="K14" s="1">
-        <v>1.0796570000000001</v>
+        <v>1.1232979999999999</v>
       </c>
       <c r="L14" s="1">
-        <v>3.2191390000000002</v>
+        <v>3.2788740000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>0.80585899999999999</v>
+        <v>0.8248451</v>
       </c>
       <c r="N14" s="1">
-        <v>16.797419999999999</v>
+        <v>16.79682</v>
       </c>
       <c r="O14" s="1">
-        <v>999.27030000000002</v>
+        <v>999.26980000000003</v>
       </c>
       <c r="P14" s="1">
-        <v>46.90468139</v>
+        <v>46.904674149999998</v>
       </c>
       <c r="Q14" s="1">
-        <v>-91.036204089999998</v>
+        <v>-91.036213459999999</v>
       </c>
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>45098.548078703701</v>
+        <v>45098.548090277778</v>
       </c>
       <c r="B15" s="1">
-        <v>24.491910000000001</v>
+        <v>15.15239</v>
       </c>
       <c r="C15" s="1">
-        <v>10.284140000000001</v>
+        <v>10.034739999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>63.086889999999997</v>
+        <v>65.016999999999996</v>
       </c>
       <c r="E15" s="1">
-        <v>95.828140000000005</v>
+        <v>98.827870000000004</v>
       </c>
       <c r="F15" s="1">
-        <v>4.4208110000000002E-2</v>
+        <v>4.5646680000000002E-2</v>
       </c>
       <c r="G15" s="1">
-        <v>0.99985610000000003</v>
+        <v>0.99985679999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>6.5284900000000007E-2</v>
+        <v>6.6235820000000001E-2</v>
       </c>
       <c r="I15" s="1">
-        <v>0.72784760000000004</v>
+        <v>0.71608000000000005</v>
       </c>
       <c r="J15" s="1">
-        <v>8.4203139999999994</v>
+        <v>8.4235579999999999</v>
       </c>
       <c r="K15" s="1">
-        <v>1.1232979999999999</v>
+        <v>1.1669389999999999</v>
       </c>
       <c r="L15" s="1">
-        <v>3.2788740000000001</v>
+        <v>3.3386079999999998</v>
       </c>
       <c r="M15" s="1">
-        <v>0.8248451</v>
+        <v>0.84383129999999995</v>
       </c>
       <c r="N15" s="1">
-        <v>16.79682</v>
+        <v>16.796209999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>999.26980000000003</v>
+        <v>999.26940000000002</v>
       </c>
       <c r="P15" s="1">
         <v>46.904674149999998</v>
@@ -1221,49 +1272,49 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>45098.548090277778</v>
+        <v>45098.548101851855</v>
       </c>
       <c r="B16" s="1">
-        <v>15.15239</v>
+        <v>13.287039999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>10.034739999999999</v>
+        <v>10.03435</v>
       </c>
       <c r="D16" s="1">
-        <v>65.016999999999996</v>
+        <v>66.954769999999996</v>
       </c>
       <c r="E16" s="1">
-        <v>98.827870000000004</v>
+        <v>98.518969999999996</v>
       </c>
       <c r="F16" s="1">
-        <v>4.5646680000000002E-2</v>
+        <v>4.5488609999999999E-2</v>
       </c>
       <c r="G16" s="1">
-        <v>0.99985679999999999</v>
+        <v>0.9998631</v>
       </c>
       <c r="H16" s="1">
-        <v>6.6235820000000001E-2</v>
+        <v>6.5114099999999994E-2</v>
       </c>
       <c r="I16" s="1">
-        <v>0.71608000000000005</v>
+        <v>0.68647720000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>8.4235579999999999</v>
+        <v>8.4702990000000007</v>
       </c>
       <c r="K16" s="1">
-        <v>1.1669389999999999</v>
+        <v>1.811105</v>
       </c>
       <c r="L16" s="1">
-        <v>3.3386079999999998</v>
+        <v>4.8226800000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>0.84383129999999995</v>
+        <v>1.285941</v>
       </c>
       <c r="N16" s="1">
-        <v>16.796209999999999</v>
+        <v>16.701899999999998</v>
       </c>
       <c r="O16" s="1">
-        <v>999.26940000000002</v>
+        <v>999.26969999999994</v>
       </c>
       <c r="P16" s="1">
         <v>46.904674149999998</v>
@@ -1275,100 +1326,100 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>45098.548101851855</v>
+        <v>45098.548113425924</v>
       </c>
       <c r="B17" s="1">
-        <v>13.287039999999999</v>
+        <v>9.1840189999999993</v>
       </c>
       <c r="C17" s="1">
-        <v>10.03435</v>
+        <v>9.9331770000000006</v>
       </c>
       <c r="D17" s="1">
-        <v>66.954769999999996</v>
+        <v>67.839929999999995</v>
       </c>
       <c r="E17" s="1">
-        <v>98.518969999999996</v>
+        <v>99.719809999999995</v>
       </c>
       <c r="F17" s="1">
-        <v>4.5488609999999999E-2</v>
+        <v>4.6063979999999997E-2</v>
       </c>
       <c r="G17" s="1">
-        <v>0.9998631</v>
+        <v>0.99986370000000002</v>
       </c>
       <c r="H17" s="1">
-        <v>6.5114099999999994E-2</v>
+        <v>6.5134300000000006E-2</v>
       </c>
       <c r="I17" s="1">
-        <v>0.68647720000000001</v>
+        <v>0.67993179999999998</v>
       </c>
       <c r="J17" s="1">
-        <v>8.4702990000000007</v>
+        <v>8.4738679999999995</v>
       </c>
       <c r="K17" s="1">
-        <v>1.811105</v>
+        <v>1.8626309999999999</v>
       </c>
       <c r="L17" s="1">
-        <v>4.8226800000000001</v>
+        <v>4.913087</v>
       </c>
       <c r="M17" s="1">
-        <v>1.285941</v>
+        <v>1.3132649999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>16.701899999999998</v>
+        <v>16.696680000000001</v>
       </c>
       <c r="O17" s="1">
         <v>999.26969999999994</v>
       </c>
       <c r="P17" s="1">
-        <v>46.904674149999998</v>
+        <v>46.904665090000002</v>
       </c>
       <c r="Q17" s="1">
-        <v>-91.036213459999999</v>
+        <v>-91.036222550000005</v>
       </c>
       <c r="R17" s="1"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>45098.548113425924</v>
+        <v>45098.548125000001</v>
       </c>
       <c r="B18" s="1">
-        <v>9.1840189999999993</v>
+        <v>5.0810029999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>9.9331770000000006</v>
+        <v>9.832001</v>
       </c>
       <c r="D18" s="1">
-        <v>67.839929999999995</v>
+        <v>68.725099999999998</v>
       </c>
       <c r="E18" s="1">
-        <v>99.719809999999995</v>
+        <v>100.92059999999999</v>
       </c>
       <c r="F18" s="1">
-        <v>4.6063979999999997E-2</v>
+        <v>4.6639350000000003E-2</v>
       </c>
       <c r="G18" s="1">
-        <v>0.99986370000000002</v>
+        <v>0.99986439999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>6.5134300000000006E-2</v>
+        <v>6.5154500000000004E-2</v>
       </c>
       <c r="I18" s="1">
-        <v>0.67993179999999998</v>
+        <v>0.67338620000000005</v>
       </c>
       <c r="J18" s="1">
-        <v>8.4738679999999995</v>
+        <v>8.4774370000000001</v>
       </c>
       <c r="K18" s="1">
-        <v>1.8626309999999999</v>
+        <v>1.914158</v>
       </c>
       <c r="L18" s="1">
-        <v>4.913087</v>
+        <v>5.003495</v>
       </c>
       <c r="M18" s="1">
-        <v>1.3132649999999999</v>
+        <v>1.340589</v>
       </c>
       <c r="N18" s="1">
-        <v>16.696680000000001</v>
+        <v>16.69145</v>
       </c>
       <c r="O18" s="1">
         <v>999.26969999999994</v>
@@ -1383,49 +1434,49 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>45098.548125000001</v>
+        <v>45098.548136574071</v>
       </c>
       <c r="B19" s="1">
-        <v>5.0810029999999999</v>
+        <v>7.5150569999999997</v>
       </c>
       <c r="C19" s="1">
-        <v>9.832001</v>
+        <v>9.6855589999999996</v>
       </c>
       <c r="D19" s="1">
-        <v>68.725099999999998</v>
+        <v>66.832570000000004</v>
       </c>
       <c r="E19" s="1">
-        <v>100.92059999999999</v>
+        <v>99.01737</v>
       </c>
       <c r="F19" s="1">
-        <v>4.6639350000000003E-2</v>
+        <v>4.5687890000000002E-2</v>
       </c>
       <c r="G19" s="1">
-        <v>0.99986439999999999</v>
+        <v>0.99988580000000005</v>
       </c>
       <c r="H19" s="1">
-        <v>6.5154500000000004E-2</v>
+        <v>6.3939940000000001E-2</v>
       </c>
       <c r="I19" s="1">
-        <v>0.67338620000000005</v>
+        <v>0.7973346</v>
       </c>
       <c r="J19" s="1">
-        <v>8.4774370000000001</v>
+        <v>8.0315159999999999</v>
       </c>
       <c r="K19" s="1">
-        <v>1.914158</v>
+        <v>2.7517550000000002</v>
       </c>
       <c r="L19" s="1">
-        <v>5.003495</v>
+        <v>9.2864070000000005</v>
       </c>
       <c r="M19" s="1">
-        <v>1.340589</v>
+        <v>2.646201</v>
       </c>
       <c r="N19" s="1">
-        <v>16.69145</v>
+        <v>16.769400000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>999.26969999999994</v>
+        <v>999.28700000000003</v>
       </c>
       <c r="P19" s="1">
         <v>46.904665090000002</v>
@@ -1437,49 +1488,49 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>45098.548136574071</v>
+        <v>45098.548148148147</v>
       </c>
       <c r="B20" s="1">
-        <v>7.5150569999999997</v>
+        <v>7.5242950000000004</v>
       </c>
       <c r="C20" s="1">
-        <v>9.6855589999999996</v>
+        <v>9.6753049999999998</v>
       </c>
       <c r="D20" s="1">
-        <v>66.832570000000004</v>
+        <v>66.790149999999997</v>
       </c>
       <c r="E20" s="1">
-        <v>99.01737</v>
+        <v>98.934650000000005</v>
       </c>
       <c r="F20" s="1">
-        <v>4.5687890000000002E-2</v>
+        <v>4.5645900000000003E-2</v>
       </c>
       <c r="G20" s="1">
-        <v>0.99988580000000005</v>
+        <v>0.99988710000000003</v>
       </c>
       <c r="H20" s="1">
-        <v>6.3939940000000001E-2</v>
+        <v>6.3863279999999994E-2</v>
       </c>
       <c r="I20" s="1">
-        <v>0.7973346</v>
+        <v>0.8033131</v>
       </c>
       <c r="J20" s="1">
-        <v>8.0315159999999999</v>
+        <v>8.0083479999999998</v>
       </c>
       <c r="K20" s="1">
-        <v>2.7517550000000002</v>
+        <v>2.8118729999999998</v>
       </c>
       <c r="L20" s="1">
-        <v>9.2864070000000005</v>
+        <v>9.5526160000000004</v>
       </c>
       <c r="M20" s="1">
-        <v>2.646201</v>
+        <v>2.7271329999999998</v>
       </c>
       <c r="N20" s="1">
-        <v>16.769400000000001</v>
+        <v>16.771550000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>999.28700000000003</v>
+        <v>999.28800000000001</v>
       </c>
       <c r="P20" s="1">
         <v>46.904665090000002</v>
@@ -1491,103 +1542,103 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>45098.548148148147</v>
+        <v>45098.548159722224</v>
       </c>
       <c r="B21" s="1">
-        <v>7.5242950000000004</v>
+        <v>7.5335330000000003</v>
       </c>
       <c r="C21" s="1">
-        <v>9.6753049999999998</v>
+        <v>9.6650510000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>66.790149999999997</v>
+        <v>66.747730000000004</v>
       </c>
       <c r="E21" s="1">
-        <v>98.934650000000005</v>
+        <v>98.851939999999999</v>
       </c>
       <c r="F21" s="1">
-        <v>4.5645900000000003E-2</v>
+        <v>4.5603900000000003E-2</v>
       </c>
       <c r="G21" s="1">
-        <v>0.99988710000000003</v>
+        <v>0.99988840000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>6.3863279999999994E-2</v>
+        <v>6.3786620000000002E-2</v>
       </c>
       <c r="I21" s="1">
-        <v>0.8033131</v>
+        <v>0.80929169999999995</v>
       </c>
       <c r="J21" s="1">
-        <v>8.0083479999999998</v>
+        <v>7.9851799999999997</v>
       </c>
       <c r="K21" s="1">
-        <v>2.8118729999999998</v>
+        <v>2.871991</v>
       </c>
       <c r="L21" s="1">
-        <v>9.5526160000000004</v>
+        <v>9.8188230000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>2.7271329999999998</v>
+        <v>2.8080639999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>16.771550000000001</v>
+        <v>16.773710000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>999.28800000000001</v>
+        <v>999.28890000000001</v>
       </c>
       <c r="P21" s="1">
-        <v>46.904665090000002</v>
+        <v>46.904655339999998</v>
       </c>
       <c r="Q21" s="1">
-        <v>-91.036222550000005</v>
+        <v>-91.036226040000003</v>
       </c>
       <c r="R21" s="1"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>45098.548159722224</v>
+        <v>45098.548171296294</v>
       </c>
       <c r="B22" s="1">
-        <v>7.5335330000000003</v>
+        <v>7.5675800000000004</v>
       </c>
       <c r="C22" s="1">
-        <v>9.6650510000000001</v>
+        <v>9.7405089999999994</v>
       </c>
       <c r="D22" s="1">
-        <v>66.747730000000004</v>
+        <v>64.628209999999996</v>
       </c>
       <c r="E22" s="1">
-        <v>98.851939999999999</v>
+        <v>97.75591</v>
       </c>
       <c r="F22" s="1">
-        <v>4.5603900000000003E-2</v>
+        <v>4.4991839999999998E-2</v>
       </c>
       <c r="G22" s="1">
-        <v>0.99988840000000001</v>
+        <v>0.99992729999999996</v>
       </c>
       <c r="H22" s="1">
-        <v>6.3786620000000002E-2</v>
+        <v>6.3493930000000004E-2</v>
       </c>
       <c r="I22" s="1">
-        <v>0.80929169999999995</v>
+        <v>0.75821850000000002</v>
       </c>
       <c r="J22" s="1">
-        <v>7.9851799999999997</v>
+        <v>7.5471539999999999</v>
       </c>
       <c r="K22" s="1">
-        <v>2.871991</v>
+        <v>4.7844509999999998</v>
       </c>
       <c r="L22" s="1">
-        <v>9.8188230000000001</v>
+        <v>11.905250000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>2.8080639999999999</v>
+        <v>3.4438710000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>16.773710000000001</v>
+        <v>16.735399999999998</v>
       </c>
       <c r="O22" s="1">
-        <v>999.28890000000001</v>
+        <v>999.2278</v>
       </c>
       <c r="P22" s="1">
         <v>46.904655339999998</v>
@@ -1599,49 +1650,49 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>45098.548171296294</v>
+        <v>45098.548182870371</v>
       </c>
       <c r="B23" s="1">
-        <v>7.5675800000000004</v>
+        <v>7.5701929999999997</v>
       </c>
       <c r="C23" s="1">
-        <v>9.7405089999999994</v>
+        <v>9.7399319999999996</v>
       </c>
       <c r="D23" s="1">
-        <v>64.628209999999996</v>
+        <v>64.480760000000004</v>
       </c>
       <c r="E23" s="1">
-        <v>97.75591</v>
+        <v>97.669079999999994</v>
       </c>
       <c r="F23" s="1">
-        <v>4.4991839999999998E-2</v>
+        <v>4.4944600000000001E-2</v>
       </c>
       <c r="G23" s="1">
-        <v>0.99992729999999996</v>
+        <v>0.99992979999999998</v>
       </c>
       <c r="H23" s="1">
-        <v>6.3493930000000004E-2</v>
+        <v>6.3450790000000007E-2</v>
       </c>
       <c r="I23" s="1">
-        <v>0.75821850000000002</v>
+        <v>0.75817590000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>7.5471539999999999</v>
+        <v>7.5131480000000002</v>
       </c>
       <c r="K23" s="1">
-        <v>4.7844509999999998</v>
+        <v>4.908283</v>
       </c>
       <c r="L23" s="1">
-        <v>11.905250000000001</v>
+        <v>12.117190000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>3.4438710000000001</v>
+        <v>3.5084680000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>16.735399999999998</v>
+        <v>16.735040000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>999.2278</v>
+        <v>999.22490000000005</v>
       </c>
       <c r="P23" s="1">
         <v>46.904655339999998</v>
@@ -1653,49 +1704,49 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>45098.548182870371</v>
+        <v>45098.548194444447</v>
       </c>
       <c r="B24" s="1">
-        <v>7.5701929999999997</v>
+        <v>7.5728059999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>9.7399319999999996</v>
+        <v>9.7393549999999998</v>
       </c>
       <c r="D24" s="1">
-        <v>64.480760000000004</v>
+        <v>64.333309999999997</v>
       </c>
       <c r="E24" s="1">
-        <v>97.669079999999994</v>
+        <v>97.582229999999996</v>
       </c>
       <c r="F24" s="1">
-        <v>4.4944600000000001E-2</v>
+        <v>4.4897359999999997E-2</v>
       </c>
       <c r="G24" s="1">
-        <v>0.99992979999999998</v>
+        <v>0.9999325</v>
       </c>
       <c r="H24" s="1">
-        <v>6.3450790000000007E-2</v>
+        <v>6.3407640000000001E-2</v>
       </c>
       <c r="I24" s="1">
-        <v>0.75817590000000001</v>
+        <v>0.75813330000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>7.5131480000000002</v>
+        <v>7.4791410000000003</v>
       </c>
       <c r="K24" s="1">
-        <v>4.908283</v>
+        <v>5.0321160000000003</v>
       </c>
       <c r="L24" s="1">
-        <v>12.117190000000001</v>
+        <v>12.329129999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>3.5084680000000001</v>
+        <v>3.5730650000000002</v>
       </c>
       <c r="N24" s="1">
-        <v>16.735040000000001</v>
+        <v>16.734690000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>999.22490000000005</v>
+        <v>999.22190000000001</v>
       </c>
       <c r="P24" s="1">
         <v>46.904655339999998</v>
@@ -1707,49 +1758,49 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>45098.548194444447</v>
+        <v>45098.548206018517</v>
       </c>
       <c r="B25" s="1">
-        <v>7.5728059999999999</v>
+        <v>7.6848039999999997</v>
       </c>
       <c r="C25" s="1">
-        <v>9.7393549999999998</v>
+        <v>9.8179189999999998</v>
       </c>
       <c r="D25" s="1">
-        <v>64.333309999999997</v>
+        <v>63.954599999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>97.582229999999996</v>
+        <v>97.579179999999994</v>
       </c>
       <c r="F25" s="1">
-        <v>4.4897359999999997E-2</v>
+        <v>4.4869529999999998E-2</v>
       </c>
       <c r="G25" s="1">
-        <v>0.9999325</v>
+        <v>0.99994179999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>6.3407640000000001E-2</v>
+        <v>6.3414860000000003E-2</v>
       </c>
       <c r="I25" s="1">
-        <v>0.75813330000000001</v>
+        <v>0.71286050000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>7.4791410000000003</v>
+        <v>7.1983389999999998</v>
       </c>
       <c r="K25" s="1">
-        <v>5.0321160000000003</v>
+        <v>5.7710229999999996</v>
       </c>
       <c r="L25" s="1">
-        <v>12.329129999999999</v>
+        <v>13.983470000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>3.5730650000000002</v>
+        <v>4.0770369999999998</v>
       </c>
       <c r="N25" s="1">
-        <v>16.734690000000001</v>
+        <v>16.788989999999998</v>
       </c>
       <c r="O25" s="1">
-        <v>999.22190000000001</v>
+        <v>999.23009999999999</v>
       </c>
       <c r="P25" s="1">
         <v>46.904655339999998</v>
@@ -1761,49 +1812,49 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>45098.548206018517</v>
+        <v>45098.548217592594</v>
       </c>
       <c r="B26" s="1">
-        <v>7.6848039999999997</v>
+        <v>7.691713</v>
       </c>
       <c r="C26" s="1">
-        <v>9.8179189999999998</v>
+        <v>9.8237330000000007</v>
       </c>
       <c r="D26" s="1">
-        <v>63.954599999999999</v>
+        <v>63.884619999999998</v>
       </c>
       <c r="E26" s="1">
-        <v>97.579179999999994</v>
+        <v>97.552490000000006</v>
       </c>
       <c r="F26" s="1">
-        <v>4.4869529999999998E-2</v>
+        <v>4.4853280000000002E-2</v>
       </c>
       <c r="G26" s="1">
-        <v>0.99994179999999999</v>
+        <v>0.99994329999999998</v>
       </c>
       <c r="H26" s="1">
-        <v>6.3414860000000003E-2</v>
+        <v>6.3407409999999997E-2</v>
       </c>
       <c r="I26" s="1">
-        <v>0.71286050000000001</v>
+        <v>0.7093351</v>
       </c>
       <c r="J26" s="1">
-        <v>7.1983389999999998</v>
+        <v>7.1728399999999999</v>
       </c>
       <c r="K26" s="1">
-        <v>5.7710229999999996</v>
+        <v>5.8557170000000003</v>
       </c>
       <c r="L26" s="1">
-        <v>13.983470000000001</v>
+        <v>14.12401</v>
       </c>
       <c r="M26" s="1">
-        <v>4.0770369999999998</v>
+        <v>4.119853</v>
       </c>
       <c r="N26" s="1">
-        <v>16.788989999999998</v>
+        <v>16.791039999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>999.23009999999999</v>
+        <v>999.22910000000002</v>
       </c>
       <c r="P26" s="1">
         <v>46.904655339999998</v>
@@ -1815,49 +1866,49 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>45098.548217592594</v>
+        <v>45098.548229166663</v>
       </c>
       <c r="B27" s="1">
-        <v>7.691713</v>
+        <v>7.6986220000000003</v>
       </c>
       <c r="C27" s="1">
-        <v>9.8237330000000007</v>
+        <v>9.8295480000000008</v>
       </c>
       <c r="D27" s="1">
-        <v>63.884619999999998</v>
+        <v>63.81465</v>
       </c>
       <c r="E27" s="1">
-        <v>97.552490000000006</v>
+        <v>97.525800000000004</v>
       </c>
       <c r="F27" s="1">
-        <v>4.4853280000000002E-2</v>
+        <v>4.4837040000000002E-2</v>
       </c>
       <c r="G27" s="1">
-        <v>0.99994329999999998</v>
+        <v>0.99994459999999996</v>
       </c>
       <c r="H27" s="1">
-        <v>6.3407409999999997E-2</v>
+        <v>6.3399979999999995E-2</v>
       </c>
       <c r="I27" s="1">
-        <v>0.7093351</v>
+        <v>0.70580969999999998</v>
       </c>
       <c r="J27" s="1">
-        <v>7.1728399999999999</v>
+        <v>7.1473409999999999</v>
       </c>
       <c r="K27" s="1">
-        <v>5.8557170000000003</v>
+        <v>5.94041</v>
       </c>
       <c r="L27" s="1">
-        <v>14.12401</v>
+        <v>14.26455</v>
       </c>
       <c r="M27" s="1">
-        <v>4.119853</v>
+        <v>4.162668</v>
       </c>
       <c r="N27" s="1">
-        <v>16.791039999999999</v>
+        <v>16.793089999999999</v>
       </c>
       <c r="O27" s="1">
-        <v>999.22910000000002</v>
+        <v>999.22810000000004</v>
       </c>
       <c r="P27" s="1">
         <v>46.904655339999998</v>
@@ -1869,49 +1920,49 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>45098.548229166663</v>
+        <v>45098.54824074074</v>
       </c>
       <c r="B28" s="1">
-        <v>7.6986220000000003</v>
+        <v>7.9528319999999999</v>
       </c>
       <c r="C28" s="1">
-        <v>9.8295480000000008</v>
+        <v>10.265409999999999</v>
       </c>
       <c r="D28" s="1">
-        <v>63.81465</v>
+        <v>63.478639999999999</v>
       </c>
       <c r="E28" s="1">
-        <v>97.525800000000004</v>
+        <v>97.595789999999994</v>
       </c>
       <c r="F28" s="1">
-        <v>4.4837040000000002E-2</v>
+        <v>4.4842800000000002E-2</v>
       </c>
       <c r="G28" s="1">
-        <v>0.99994459999999996</v>
+        <v>0.99995330000000004</v>
       </c>
       <c r="H28" s="1">
-        <v>6.3399979999999995E-2</v>
+        <v>6.3654489999999994E-2</v>
       </c>
       <c r="I28" s="1">
-        <v>0.70580969999999998</v>
+        <v>0.63400809999999996</v>
       </c>
       <c r="J28" s="1">
-        <v>7.1473409999999999</v>
+        <v>6.7301159999999998</v>
       </c>
       <c r="K28" s="1">
-        <v>5.94041</v>
+        <v>6.608473</v>
       </c>
       <c r="L28" s="1">
-        <v>14.26455</v>
+        <v>17.356570000000001</v>
       </c>
       <c r="M28" s="1">
-        <v>4.162668</v>
+        <v>5.1027740000000001</v>
       </c>
       <c r="N28" s="1">
-        <v>16.793089999999999</v>
+        <v>16.794350000000001</v>
       </c>
       <c r="O28" s="1">
-        <v>999.22810000000004</v>
+        <v>999.1771</v>
       </c>
       <c r="P28" s="1">
         <v>46.904655339999998</v>
@@ -1923,49 +1974,49 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>45098.54824074074</v>
+        <v>45098.548252314817</v>
       </c>
       <c r="B29" s="1">
-        <v>7.9528319999999999</v>
+        <v>7.9689719999999999</v>
       </c>
       <c r="C29" s="1">
-        <v>10.265409999999999</v>
+        <v>10.29044</v>
       </c>
       <c r="D29" s="1">
-        <v>63.478639999999999</v>
+        <v>63.44961</v>
       </c>
       <c r="E29" s="1">
-        <v>97.595789999999994</v>
+        <v>97.597939999999994</v>
       </c>
       <c r="F29" s="1">
-        <v>4.4842800000000002E-2</v>
+        <v>4.4841659999999998E-2</v>
       </c>
       <c r="G29" s="1">
-        <v>0.99995330000000004</v>
+        <v>0.99995400000000001</v>
       </c>
       <c r="H29" s="1">
-        <v>6.3654489999999994E-2</v>
+        <v>6.3667500000000002E-2</v>
       </c>
       <c r="I29" s="1">
-        <v>0.63400809999999996</v>
+        <v>0.62915500000000002</v>
       </c>
       <c r="J29" s="1">
-        <v>6.7301159999999998</v>
+        <v>6.7009280000000002</v>
       </c>
       <c r="K29" s="1">
-        <v>6.608473</v>
+        <v>6.6629230000000002</v>
       </c>
       <c r="L29" s="1">
-        <v>17.356570000000001</v>
+        <v>17.56259</v>
       </c>
       <c r="M29" s="1">
-        <v>5.1027740000000001</v>
+        <v>5.1654369999999998</v>
       </c>
       <c r="N29" s="1">
-        <v>16.794350000000001</v>
+        <v>16.795629999999999</v>
       </c>
       <c r="O29" s="1">
-        <v>999.1771</v>
+        <v>999.17449999999997</v>
       </c>
       <c r="P29" s="1">
         <v>46.904655339999998</v>
@@ -1977,49 +2028,49 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>45098.548252314817</v>
+        <v>45098.548263888886</v>
       </c>
       <c r="B30" s="1">
-        <v>7.9689719999999999</v>
+        <v>7.9851109999999998</v>
       </c>
       <c r="C30" s="1">
-        <v>10.29044</v>
+        <v>10.315469999999999</v>
       </c>
       <c r="D30" s="1">
-        <v>63.44961</v>
+        <v>63.420589999999997</v>
       </c>
       <c r="E30" s="1">
-        <v>97.597939999999994</v>
+        <v>97.600099999999998</v>
       </c>
       <c r="F30" s="1">
-        <v>4.4841659999999998E-2</v>
+        <v>4.484051E-2</v>
       </c>
       <c r="G30" s="1">
-        <v>0.99995400000000001</v>
+        <v>0.99995469999999997</v>
       </c>
       <c r="H30" s="1">
-        <v>6.3667500000000002E-2</v>
+        <v>6.3680500000000001E-2</v>
       </c>
       <c r="I30" s="1">
-        <v>0.62915500000000002</v>
+        <v>0.62430189999999997</v>
       </c>
       <c r="J30" s="1">
-        <v>6.7009280000000002</v>
+        <v>6.6717399999999998</v>
       </c>
       <c r="K30" s="1">
-        <v>6.6629230000000002</v>
+        <v>6.7173740000000004</v>
       </c>
       <c r="L30" s="1">
-        <v>17.56259</v>
+        <v>17.768609999999999</v>
       </c>
       <c r="M30" s="1">
-        <v>5.1654369999999998</v>
+        <v>5.2281000000000004</v>
       </c>
       <c r="N30" s="1">
-        <v>16.795629999999999</v>
+        <v>16.79691</v>
       </c>
       <c r="O30" s="1">
-        <v>999.17449999999997</v>
+        <v>999.17190000000005</v>
       </c>
       <c r="P30" s="1">
         <v>46.904655339999998</v>
@@ -2031,49 +2082,49 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>45098.548263888886</v>
+        <v>45098.548275462963</v>
       </c>
       <c r="B31" s="1">
-        <v>7.9851109999999998</v>
+        <v>7.5965009999999999</v>
       </c>
       <c r="C31" s="1">
-        <v>10.315469999999999</v>
+        <v>10.351100000000001</v>
       </c>
       <c r="D31" s="1">
-        <v>63.420589999999997</v>
+        <v>63.346739999999997</v>
       </c>
       <c r="E31" s="1">
-        <v>97.600099999999998</v>
+        <v>98.184899999999999</v>
       </c>
       <c r="F31" s="1">
-        <v>4.484051E-2</v>
+        <v>4.5085350000000003E-2</v>
       </c>
       <c r="G31" s="1">
-        <v>0.99995469999999997</v>
+        <v>0.99996439999999998</v>
       </c>
       <c r="H31" s="1">
-        <v>6.3680500000000001E-2</v>
+        <v>6.3843990000000003E-2</v>
       </c>
       <c r="I31" s="1">
-        <v>0.62430189999999997</v>
+        <v>0.70552360000000003</v>
       </c>
       <c r="J31" s="1">
-        <v>6.6717399999999998</v>
+        <v>6.5541029999999996</v>
       </c>
       <c r="K31" s="1">
-        <v>6.7173740000000004</v>
+        <v>8.0196500000000004</v>
       </c>
       <c r="L31" s="1">
-        <v>17.768609999999999</v>
+        <v>19.26829</v>
       </c>
       <c r="M31" s="1">
-        <v>5.2281000000000004</v>
+        <v>5.6883990000000004</v>
       </c>
       <c r="N31" s="1">
-        <v>16.79691</v>
+        <v>16.819749999999999</v>
       </c>
       <c r="O31" s="1">
-        <v>999.17190000000005</v>
+        <v>999.18880000000001</v>
       </c>
       <c r="P31" s="1">
         <v>46.904655339999998</v>
@@ -2085,49 +2136,49 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>45098.548275462963</v>
+        <v>45098.54828703704</v>
       </c>
       <c r="B32" s="1">
-        <v>7.5965009999999999</v>
+        <v>7.5811919999999997</v>
       </c>
       <c r="C32" s="1">
-        <v>10.351100000000001</v>
+        <v>10.36284</v>
       </c>
       <c r="D32" s="1">
-        <v>63.346739999999997</v>
+        <v>63.334069999999997</v>
       </c>
       <c r="E32" s="1">
-        <v>98.184899999999999</v>
+        <v>98.217680000000001</v>
       </c>
       <c r="F32" s="1">
-        <v>4.5085350000000003E-2</v>
+        <v>4.509846E-2</v>
       </c>
       <c r="G32" s="1">
-        <v>0.99996439999999998</v>
+        <v>0.9999652</v>
       </c>
       <c r="H32" s="1">
-        <v>6.3843990000000003E-2</v>
+        <v>6.3858390000000001E-2</v>
       </c>
       <c r="I32" s="1">
-        <v>0.70552360000000003</v>
+        <v>0.70827439999999997</v>
       </c>
       <c r="J32" s="1">
-        <v>6.5541029999999996</v>
+        <v>6.5380380000000002</v>
       </c>
       <c r="K32" s="1">
-        <v>8.0196500000000004</v>
+        <v>8.1064950000000007</v>
       </c>
       <c r="L32" s="1">
-        <v>19.26829</v>
+        <v>19.42062</v>
       </c>
       <c r="M32" s="1">
-        <v>5.6883990000000004</v>
+        <v>5.7349500000000004</v>
       </c>
       <c r="N32" s="1">
-        <v>16.819749999999999</v>
+        <v>16.82104</v>
       </c>
       <c r="O32" s="1">
-        <v>999.18880000000001</v>
+        <v>999.18849999999998</v>
       </c>
       <c r="P32" s="1">
         <v>46.904655339999998</v>
@@ -2139,103 +2190,103 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>45098.54828703704</v>
+        <v>45098.548298611109</v>
       </c>
       <c r="B33" s="1">
-        <v>7.5811919999999997</v>
+        <v>7.5658820000000002</v>
       </c>
       <c r="C33" s="1">
-        <v>10.36284</v>
+        <v>10.37457</v>
       </c>
       <c r="D33" s="1">
-        <v>63.334069999999997</v>
+        <v>63.321399999999997</v>
       </c>
       <c r="E33" s="1">
-        <v>98.217680000000001</v>
+        <v>98.250460000000004</v>
       </c>
       <c r="F33" s="1">
-        <v>4.509846E-2</v>
+        <v>4.5111579999999998E-2</v>
       </c>
       <c r="G33" s="1">
-        <v>0.9999652</v>
+        <v>0.99996589999999996</v>
       </c>
       <c r="H33" s="1">
-        <v>6.3858390000000001E-2</v>
+        <v>6.3872799999999993E-2</v>
       </c>
       <c r="I33" s="1">
-        <v>0.70827439999999997</v>
+        <v>0.71102529999999997</v>
       </c>
       <c r="J33" s="1">
-        <v>6.5380380000000002</v>
+        <v>6.521973</v>
       </c>
       <c r="K33" s="1">
-        <v>8.1064950000000007</v>
+        <v>8.1933410000000002</v>
       </c>
       <c r="L33" s="1">
-        <v>19.42062</v>
+        <v>19.572949999999999</v>
       </c>
       <c r="M33" s="1">
-        <v>5.7349500000000004</v>
+        <v>5.7814990000000002</v>
       </c>
       <c r="N33" s="1">
-        <v>16.82104</v>
+        <v>16.822320000000001</v>
       </c>
       <c r="O33" s="1">
-        <v>999.18849999999998</v>
+        <v>999.18830000000003</v>
       </c>
       <c r="P33" s="1">
-        <v>46.904655339999998</v>
+        <v>46.904646159999999</v>
       </c>
       <c r="Q33" s="1">
-        <v>-91.036226040000003</v>
+        <v>-91.036233969999998</v>
       </c>
       <c r="R33" s="1"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>45098.548298611109</v>
+        <v>45098.548310185186</v>
       </c>
       <c r="B34" s="1">
-        <v>7.5658820000000002</v>
+        <v>8.337453</v>
       </c>
       <c r="C34" s="1">
-        <v>10.37457</v>
+        <v>10.3652</v>
       </c>
       <c r="D34" s="1">
-        <v>63.321399999999997</v>
+        <v>63.305909999999997</v>
       </c>
       <c r="E34" s="1">
-        <v>98.250460000000004</v>
+        <v>98.468050000000005</v>
       </c>
       <c r="F34" s="1">
-        <v>4.5111579999999998E-2</v>
+        <v>4.5203260000000002E-2</v>
       </c>
       <c r="G34" s="1">
-        <v>0.99996589999999996</v>
+        <v>0.99996890000000005</v>
       </c>
       <c r="H34" s="1">
-        <v>6.3872799999999993E-2</v>
+        <v>6.4010410000000004E-2</v>
       </c>
       <c r="I34" s="1">
-        <v>0.71102529999999997</v>
+        <v>0.74976299999999996</v>
       </c>
       <c r="J34" s="1">
-        <v>6.521973</v>
+        <v>6.3196070000000004</v>
       </c>
       <c r="K34" s="1">
-        <v>8.1933410000000002</v>
+        <v>8.7297799999999999</v>
       </c>
       <c r="L34" s="1">
-        <v>19.572949999999999</v>
+        <v>20.777259999999998</v>
       </c>
       <c r="M34" s="1">
-        <v>5.7814990000000002</v>
+        <v>6.150633</v>
       </c>
       <c r="N34" s="1">
-        <v>16.822320000000001</v>
+        <v>16.806730000000002</v>
       </c>
       <c r="O34" s="1">
-        <v>999.18830000000003</v>
+        <v>999.18920000000003</v>
       </c>
       <c r="P34" s="1">
         <v>46.904646159999999</v>
@@ -2247,49 +2298,49 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>45098.548310185186</v>
+        <v>45098.548321759263</v>
       </c>
       <c r="B35" s="1">
-        <v>8.337453</v>
+        <v>8.3689990000000005</v>
       </c>
       <c r="C35" s="1">
-        <v>10.3652</v>
+        <v>10.36585</v>
       </c>
       <c r="D35" s="1">
-        <v>63.305909999999997</v>
+        <v>63.302990000000001</v>
       </c>
       <c r="E35" s="1">
-        <v>98.468050000000005</v>
+        <v>98.493030000000005</v>
       </c>
       <c r="F35" s="1">
-        <v>4.5203260000000002E-2</v>
+        <v>4.5213730000000001E-2</v>
       </c>
       <c r="G35" s="1">
-        <v>0.99996890000000005</v>
+        <v>0.99996940000000001</v>
       </c>
       <c r="H35" s="1">
-        <v>6.4010410000000004E-2</v>
+        <v>6.402157E-2</v>
       </c>
       <c r="I35" s="1">
-        <v>0.74976299999999996</v>
+        <v>0.75361250000000002</v>
       </c>
       <c r="J35" s="1">
-        <v>6.3196070000000004</v>
+        <v>6.3059029999999998</v>
       </c>
       <c r="K35" s="1">
-        <v>8.7297799999999999</v>
+        <v>8.7888280000000005</v>
       </c>
       <c r="L35" s="1">
-        <v>20.777259999999998</v>
+        <v>20.877780000000001</v>
       </c>
       <c r="M35" s="1">
-        <v>6.150633</v>
+        <v>6.181451</v>
       </c>
       <c r="N35" s="1">
-        <v>16.806730000000002</v>
+        <v>16.806460000000001</v>
       </c>
       <c r="O35" s="1">
-        <v>999.18920000000003</v>
+        <v>999.18960000000004</v>
       </c>
       <c r="P35" s="1">
         <v>46.904646159999999</v>
@@ -2301,49 +2352,49 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>45098.548321759263</v>
+        <v>45098.548333333332</v>
       </c>
       <c r="B36" s="1">
-        <v>8.3689990000000005</v>
+        <v>8.4005449999999993</v>
       </c>
       <c r="C36" s="1">
-        <v>10.36585</v>
+        <v>10.3665</v>
       </c>
       <c r="D36" s="1">
-        <v>63.302990000000001</v>
+        <v>63.300069999999998</v>
       </c>
       <c r="E36" s="1">
-        <v>98.493030000000005</v>
+        <v>98.518020000000007</v>
       </c>
       <c r="F36" s="1">
-        <v>4.5213730000000001E-2</v>
+        <v>4.5224189999999997E-2</v>
       </c>
       <c r="G36" s="1">
-        <v>0.99996940000000001</v>
+        <v>0.99996969999999996</v>
       </c>
       <c r="H36" s="1">
-        <v>6.402157E-2</v>
+        <v>6.4032720000000001E-2</v>
       </c>
       <c r="I36" s="1">
-        <v>0.75361250000000002</v>
+        <v>0.75746190000000002</v>
       </c>
       <c r="J36" s="1">
-        <v>6.3059029999999998</v>
+        <v>6.2922000000000002</v>
       </c>
       <c r="K36" s="1">
-        <v>8.7888280000000005</v>
+        <v>8.8478750000000002</v>
       </c>
       <c r="L36" s="1">
-        <v>20.877780000000001</v>
+        <v>20.978300000000001</v>
       </c>
       <c r="M36" s="1">
-        <v>6.181451</v>
+        <v>6.2122700000000002</v>
       </c>
       <c r="N36" s="1">
-        <v>16.806460000000001</v>
+        <v>16.8062</v>
       </c>
       <c r="O36" s="1">
-        <v>999.18960000000004</v>
+        <v>999.19</v>
       </c>
       <c r="P36" s="1">
         <v>46.904646159999999</v>
@@ -2355,49 +2406,49 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>45098.548333333332</v>
+        <v>45098.548344907409</v>
       </c>
       <c r="B37" s="1">
-        <v>8.4005449999999993</v>
+        <v>7.9030810000000002</v>
       </c>
       <c r="C37" s="1">
-        <v>10.3665</v>
+        <v>10.345409999999999</v>
       </c>
       <c r="D37" s="1">
-        <v>63.300069999999998</v>
+        <v>63.17266</v>
       </c>
       <c r="E37" s="1">
-        <v>98.518020000000007</v>
+        <v>98.602490000000003</v>
       </c>
       <c r="F37" s="1">
-        <v>4.5224189999999997E-2</v>
+        <v>4.5250400000000003E-2</v>
       </c>
       <c r="G37" s="1">
-        <v>0.99996969999999996</v>
+        <v>0.99997689999999995</v>
       </c>
       <c r="H37" s="1">
-        <v>6.4032720000000001E-2</v>
+        <v>6.3956009999999994E-2</v>
       </c>
       <c r="I37" s="1">
-        <v>0.75746190000000002</v>
+        <v>0.66717159999999998</v>
       </c>
       <c r="J37" s="1">
-        <v>6.2922000000000002</v>
+        <v>6.1919750000000002</v>
       </c>
       <c r="K37" s="1">
-        <v>8.8478750000000002</v>
+        <v>10.271000000000001</v>
       </c>
       <c r="L37" s="1">
-        <v>20.978300000000001</v>
+        <v>24.29673</v>
       </c>
       <c r="M37" s="1">
-        <v>6.2122700000000002</v>
+        <v>7.2212310000000004</v>
       </c>
       <c r="N37" s="1">
-        <v>16.8062</v>
+        <v>16.828679999999999</v>
       </c>
       <c r="O37" s="1">
-        <v>999.19</v>
+        <v>999.17250000000001</v>
       </c>
       <c r="P37" s="1">
         <v>46.904646159999999</v>
@@ -2409,49 +2460,49 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>45098.548344907409</v>
+        <v>45098.548356481479</v>
       </c>
       <c r="B38" s="1">
-        <v>7.9030810000000002</v>
+        <v>7.8938519999999999</v>
       </c>
       <c r="C38" s="1">
-        <v>10.345409999999999</v>
+        <v>10.34431</v>
       </c>
       <c r="D38" s="1">
-        <v>63.17266</v>
+        <v>63.165520000000001</v>
       </c>
       <c r="E38" s="1">
-        <v>98.602490000000003</v>
+        <v>98.612170000000006</v>
       </c>
       <c r="F38" s="1">
-        <v>4.5250400000000003E-2</v>
+        <v>4.5253979999999999E-2</v>
       </c>
       <c r="G38" s="1">
-        <v>0.99997689999999995</v>
+        <v>0.99997740000000002</v>
       </c>
       <c r="H38" s="1">
-        <v>6.3956009999999994E-2</v>
+        <v>6.3955280000000003E-2</v>
       </c>
       <c r="I38" s="1">
-        <v>0.66717159999999998</v>
+        <v>0.66338940000000002</v>
       </c>
       <c r="J38" s="1">
-        <v>6.1919750000000002</v>
+        <v>6.1821099999999998</v>
       </c>
       <c r="K38" s="1">
-        <v>10.271000000000001</v>
+        <v>10.357849999999999</v>
       </c>
       <c r="L38" s="1">
-        <v>24.29673</v>
+        <v>24.497330000000002</v>
       </c>
       <c r="M38" s="1">
-        <v>7.2212310000000004</v>
+        <v>7.2822909999999998</v>
       </c>
       <c r="N38" s="1">
-        <v>16.828679999999999</v>
+        <v>16.829529999999998</v>
       </c>
       <c r="O38" s="1">
-        <v>999.17250000000001</v>
+        <v>999.17169999999999</v>
       </c>
       <c r="P38" s="1">
         <v>46.904646159999999</v>
@@ -2463,49 +2514,49 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>45098.548356481479</v>
+        <v>45098.548368055555</v>
       </c>
       <c r="B39" s="1">
-        <v>7.8938519999999999</v>
+        <v>7.8846230000000004</v>
       </c>
       <c r="C39" s="1">
-        <v>10.34431</v>
+        <v>10.343209999999999</v>
       </c>
       <c r="D39" s="1">
-        <v>63.165520000000001</v>
+        <v>63.158369999999998</v>
       </c>
       <c r="E39" s="1">
-        <v>98.612170000000006</v>
+        <v>98.621840000000006</v>
       </c>
       <c r="F39" s="1">
-        <v>4.5253979999999999E-2</v>
+        <v>4.5257560000000002E-2</v>
       </c>
       <c r="G39" s="1">
-        <v>0.99997740000000002</v>
+        <v>0.99997780000000003</v>
       </c>
       <c r="H39" s="1">
-        <v>6.3955280000000003E-2</v>
+        <v>6.3954549999999999E-2</v>
       </c>
       <c r="I39" s="1">
-        <v>0.66338940000000002</v>
+        <v>0.65960739999999995</v>
       </c>
       <c r="J39" s="1">
-        <v>6.1821099999999998</v>
+        <v>6.1722460000000003</v>
       </c>
       <c r="K39" s="1">
-        <v>10.357849999999999</v>
+        <v>10.44469</v>
       </c>
       <c r="L39" s="1">
-        <v>24.497330000000002</v>
+        <v>24.697929999999999</v>
       </c>
       <c r="M39" s="1">
-        <v>7.2822909999999998</v>
+        <v>7.3433510000000002</v>
       </c>
       <c r="N39" s="1">
-        <v>16.829529999999998</v>
+        <v>16.830369999999998</v>
       </c>
       <c r="O39" s="1">
-        <v>999.17169999999999</v>
+        <v>999.17079999999999</v>
       </c>
       <c r="P39" s="1">
         <v>46.904646159999999</v>
@@ -2517,49 +2568,49 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>45098.548368055555</v>
+        <v>45098.548379629632</v>
       </c>
       <c r="B40" s="1">
-        <v>7.8846230000000004</v>
+        <v>8.1833089999999995</v>
       </c>
       <c r="C40" s="1">
-        <v>10.343209999999999</v>
+        <v>10.19736</v>
       </c>
       <c r="D40" s="1">
-        <v>63.158369999999998</v>
+        <v>62.359340000000003</v>
       </c>
       <c r="E40" s="1">
-        <v>98.621840000000006</v>
+        <v>98.14134</v>
       </c>
       <c r="F40" s="1">
-        <v>4.5257560000000002E-2</v>
+        <v>4.49904E-2</v>
       </c>
       <c r="G40" s="1">
-        <v>0.99997780000000003</v>
+        <v>0.99998220000000004</v>
       </c>
       <c r="H40" s="1">
-        <v>6.3954549999999999E-2</v>
+        <v>6.3773469999999999E-2</v>
       </c>
       <c r="I40" s="1">
-        <v>0.65960739999999995</v>
+        <v>0.83570409999999995</v>
       </c>
       <c r="J40" s="1">
-        <v>6.1722460000000003</v>
+        <v>6.0521390000000004</v>
       </c>
       <c r="K40" s="1">
-        <v>10.44469</v>
+        <v>11.14875</v>
       </c>
       <c r="L40" s="1">
-        <v>24.697929999999999</v>
+        <v>26.327919999999999</v>
       </c>
       <c r="M40" s="1">
-        <v>7.3433510000000002</v>
+        <v>7.8383520000000004</v>
       </c>
       <c r="N40" s="1">
-        <v>16.830369999999998</v>
+        <v>16.838640000000002</v>
       </c>
       <c r="O40" s="1">
-        <v>999.17079999999999</v>
+        <v>999.1789</v>
       </c>
       <c r="P40" s="1">
         <v>46.904646159999999</v>
@@ -2571,100 +2622,100 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>45098.548379629632</v>
+        <v>45098.548391203702</v>
       </c>
       <c r="B41" s="1">
-        <v>8.1833089999999995</v>
+        <v>8.1883590000000002</v>
       </c>
       <c r="C41" s="1">
-        <v>10.19736</v>
+        <v>10.18934</v>
       </c>
       <c r="D41" s="1">
-        <v>62.359340000000003</v>
+        <v>62.315069999999999</v>
       </c>
       <c r="E41" s="1">
-        <v>98.14134</v>
+        <v>98.118390000000005</v>
       </c>
       <c r="F41" s="1">
-        <v>4.49904E-2</v>
+        <v>4.4977169999999997E-2</v>
       </c>
       <c r="G41" s="1">
-        <v>0.99998220000000004</v>
+        <v>0.9999825</v>
       </c>
       <c r="H41" s="1">
-        <v>6.3773469999999999E-2</v>
+        <v>6.3762520000000003E-2</v>
       </c>
       <c r="I41" s="1">
-        <v>0.83570409999999995</v>
+        <v>0.84300079999999999</v>
       </c>
       <c r="J41" s="1">
-        <v>6.0521390000000004</v>
+        <v>6.0437019999999997</v>
       </c>
       <c r="K41" s="1">
-        <v>11.14875</v>
+        <v>11.215909999999999</v>
       </c>
       <c r="L41" s="1">
-        <v>26.327919999999999</v>
+        <v>26.4833</v>
       </c>
       <c r="M41" s="1">
-        <v>7.8383520000000004</v>
+        <v>7.885567</v>
       </c>
       <c r="N41" s="1">
-        <v>16.838640000000002</v>
+        <v>16.839549999999999</v>
       </c>
       <c r="O41" s="1">
-        <v>999.1789</v>
+        <v>999.17899999999997</v>
       </c>
       <c r="P41" s="1">
-        <v>46.904646159999999</v>
+        <v>46.904644820000001</v>
       </c>
       <c r="Q41" s="1">
-        <v>-91.036233969999998</v>
+        <v>-91.036247130000007</v>
       </c>
       <c r="R41" s="1"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>45098.548391203702</v>
+        <v>45098.548402777778</v>
       </c>
       <c r="B42" s="1">
-        <v>8.1883590000000002</v>
+        <v>8.1934100000000001</v>
       </c>
       <c r="C42" s="1">
-        <v>10.18934</v>
+        <v>10.181319999999999</v>
       </c>
       <c r="D42" s="1">
-        <v>62.315069999999999</v>
+        <v>62.270800000000001</v>
       </c>
       <c r="E42" s="1">
-        <v>98.118390000000005</v>
+        <v>98.095439999999996</v>
       </c>
       <c r="F42" s="1">
-        <v>4.4977169999999997E-2</v>
+        <v>4.4963929999999999E-2</v>
       </c>
       <c r="G42" s="1">
-        <v>0.9999825</v>
+        <v>0.99998299999999996</v>
       </c>
       <c r="H42" s="1">
-        <v>6.3762520000000003E-2</v>
+        <v>6.3751580000000002E-2</v>
       </c>
       <c r="I42" s="1">
-        <v>0.84300079999999999</v>
+        <v>0.85029750000000004</v>
       </c>
       <c r="J42" s="1">
-        <v>6.0437019999999997</v>
+        <v>6.035266</v>
       </c>
       <c r="K42" s="1">
-        <v>11.215909999999999</v>
+        <v>11.283060000000001</v>
       </c>
       <c r="L42" s="1">
-        <v>26.4833</v>
+        <v>26.638680000000001</v>
       </c>
       <c r="M42" s="1">
-        <v>7.885567</v>
+        <v>7.9327810000000003</v>
       </c>
       <c r="N42" s="1">
-        <v>16.839549999999999</v>
+        <v>16.84046</v>
       </c>
       <c r="O42" s="1">
         <v>999.17899999999997</v>
@@ -2679,49 +2730,49 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>45098.548402777778</v>
+        <v>45098.548414351855</v>
       </c>
       <c r="B43" s="1">
-        <v>8.1934100000000001</v>
+        <v>8.156962</v>
       </c>
       <c r="C43" s="1">
-        <v>10.181319999999999</v>
+        <v>10.45566</v>
       </c>
       <c r="D43" s="1">
-        <v>62.270800000000001</v>
+        <v>62.055759999999999</v>
       </c>
       <c r="E43" s="1">
-        <v>98.095439999999996</v>
+        <v>98.165000000000006</v>
       </c>
       <c r="F43" s="1">
-        <v>4.4963929999999999E-2</v>
+        <v>4.497603E-2</v>
       </c>
       <c r="G43" s="1">
-        <v>0.99998299999999996</v>
+        <v>0.99998679999999995</v>
       </c>
       <c r="H43" s="1">
-        <v>6.3751580000000002E-2</v>
+        <v>6.3831059999999995E-2</v>
       </c>
       <c r="I43" s="1">
-        <v>0.85029750000000004</v>
+        <v>0.84203629999999996</v>
       </c>
       <c r="J43" s="1">
-        <v>6.035266</v>
+        <v>5.7610939999999999</v>
       </c>
       <c r="K43" s="1">
-        <v>11.283060000000001</v>
+        <v>11.84876</v>
       </c>
       <c r="L43" s="1">
-        <v>26.638680000000001</v>
+        <v>29.345949999999998</v>
       </c>
       <c r="M43" s="1">
-        <v>7.9327810000000003</v>
+        <v>8.7608169999999994</v>
       </c>
       <c r="N43" s="1">
-        <v>16.84046</v>
+        <v>16.84064</v>
       </c>
       <c r="O43" s="1">
-        <v>999.17899999999997</v>
+        <v>999.18769999999995</v>
       </c>
       <c r="P43" s="1">
         <v>46.904644820000001</v>
@@ -2733,49 +2784,49 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>45098.548414351855</v>
+        <v>45098.548425925925</v>
       </c>
       <c r="B44" s="1">
-        <v>8.156962</v>
+        <v>8.1615719999999996</v>
       </c>
       <c r="C44" s="1">
-        <v>10.45566</v>
+        <v>10.46707</v>
       </c>
       <c r="D44" s="1">
-        <v>62.055759999999999</v>
+        <v>62.027889999999999</v>
       </c>
       <c r="E44" s="1">
-        <v>98.165000000000006</v>
+        <v>98.158690000000007</v>
       </c>
       <c r="F44" s="1">
-        <v>4.497603E-2</v>
+        <v>4.4971120000000003E-2</v>
       </c>
       <c r="G44" s="1">
-        <v>0.99998679999999995</v>
+        <v>0.99998710000000002</v>
       </c>
       <c r="H44" s="1">
-        <v>6.3831059999999995E-2</v>
+        <v>6.3831529999999997E-2</v>
       </c>
       <c r="I44" s="1">
-        <v>0.84203629999999996</v>
+        <v>0.84529759999999998</v>
       </c>
       <c r="J44" s="1">
-        <v>5.7610939999999999</v>
+        <v>5.7441750000000003</v>
       </c>
       <c r="K44" s="1">
-        <v>11.84876</v>
+        <v>11.892709999999999</v>
       </c>
       <c r="L44" s="1">
-        <v>29.345949999999998</v>
+        <v>29.52121</v>
       </c>
       <c r="M44" s="1">
-        <v>8.7608169999999994</v>
+        <v>8.8143519999999995</v>
       </c>
       <c r="N44" s="1">
-        <v>16.84064</v>
+        <v>16.840810000000001</v>
       </c>
       <c r="O44" s="1">
-        <v>999.18769999999995</v>
+        <v>999.1884</v>
       </c>
       <c r="P44" s="1">
         <v>46.904644820000001</v>
@@ -2787,49 +2838,49 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>45098.548425925925</v>
+        <v>45098.548437500001</v>
       </c>
       <c r="B45" s="1">
-        <v>8.1615719999999996</v>
+        <v>8.1661809999999999</v>
       </c>
       <c r="C45" s="1">
-        <v>10.46707</v>
+        <v>10.478479999999999</v>
       </c>
       <c r="D45" s="1">
-        <v>62.027889999999999</v>
+        <v>62.000030000000002</v>
       </c>
       <c r="E45" s="1">
-        <v>98.158690000000007</v>
+        <v>98.152370000000005</v>
       </c>
       <c r="F45" s="1">
-        <v>4.4971120000000003E-2</v>
+        <v>4.4966220000000001E-2</v>
       </c>
       <c r="G45" s="1">
-        <v>0.99998710000000002</v>
+        <v>0.99998739999999997</v>
       </c>
       <c r="H45" s="1">
-        <v>6.3831529999999997E-2</v>
+        <v>6.3832009999999995E-2</v>
       </c>
       <c r="I45" s="1">
-        <v>0.84529759999999998</v>
+        <v>0.84855899999999995</v>
       </c>
       <c r="J45" s="1">
-        <v>5.7441750000000003</v>
+        <v>5.7272569999999998</v>
       </c>
       <c r="K45" s="1">
-        <v>11.892709999999999</v>
+        <v>11.93665</v>
       </c>
       <c r="L45" s="1">
-        <v>29.52121</v>
+        <v>29.696480000000001</v>
       </c>
       <c r="M45" s="1">
-        <v>8.8143519999999995</v>
+        <v>8.8678880000000007</v>
       </c>
       <c r="N45" s="1">
-        <v>16.840810000000001</v>
+        <v>16.840979999999998</v>
       </c>
       <c r="O45" s="1">
-        <v>999.1884</v>
+        <v>999.18899999999996</v>
       </c>
       <c r="P45" s="1">
         <v>46.904644820000001</v>
@@ -2841,49 +2892,49 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>45098.548437500001</v>
+        <v>45098.548449074071</v>
       </c>
       <c r="B46" s="1">
-        <v>8.1661809999999999</v>
+        <v>8.1707900000000002</v>
       </c>
       <c r="C46" s="1">
-        <v>10.478479999999999</v>
+        <v>10.489890000000001</v>
       </c>
       <c r="D46" s="1">
-        <v>62.000030000000002</v>
+        <v>61.972169999999998</v>
       </c>
       <c r="E46" s="1">
-        <v>98.152370000000005</v>
+        <v>98.146060000000006</v>
       </c>
       <c r="F46" s="1">
-        <v>4.4966220000000001E-2</v>
+        <v>4.4961309999999997E-2</v>
       </c>
       <c r="G46" s="1">
-        <v>0.99998739999999997</v>
+        <v>0.99998770000000003</v>
       </c>
       <c r="H46" s="1">
-        <v>6.3832009999999995E-2</v>
+        <v>6.3832479999999997E-2</v>
       </c>
       <c r="I46" s="1">
-        <v>0.84855899999999995</v>
+        <v>0.85182029999999997</v>
       </c>
       <c r="J46" s="1">
-        <v>5.7272569999999998</v>
+        <v>5.7103390000000003</v>
       </c>
       <c r="K46" s="1">
-        <v>11.93665</v>
+        <v>11.980600000000001</v>
       </c>
       <c r="L46" s="1">
-        <v>29.696480000000001</v>
+        <v>29.871749999999999</v>
       </c>
       <c r="M46" s="1">
-        <v>8.8678880000000007</v>
+        <v>8.921424</v>
       </c>
       <c r="N46" s="1">
-        <v>16.840979999999998</v>
+        <v>16.841149999999999</v>
       </c>
       <c r="O46" s="1">
-        <v>999.18899999999996</v>
+        <v>999.18960000000004</v>
       </c>
       <c r="P46" s="1">
         <v>46.904644820000001</v>
@@ -2895,49 +2946,49 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>45098.548449074071</v>
+        <v>45098.548460648148</v>
       </c>
       <c r="B47" s="1">
-        <v>8.1707900000000002</v>
+        <v>8.2823229999999999</v>
       </c>
       <c r="C47" s="1">
-        <v>10.489890000000001</v>
+        <v>10.60121</v>
       </c>
       <c r="D47" s="1">
-        <v>61.972169999999998</v>
+        <v>61.42521</v>
       </c>
       <c r="E47" s="1">
-        <v>98.146060000000006</v>
+        <v>98.136799999999994</v>
       </c>
       <c r="F47" s="1">
-        <v>4.4961309999999997E-2</v>
+        <v>4.4911840000000001E-2</v>
       </c>
       <c r="G47" s="1">
-        <v>0.99998770000000003</v>
+        <v>0.99999479999999996</v>
       </c>
       <c r="H47" s="1">
-        <v>6.3832479999999997E-2</v>
+        <v>6.3792409999999994E-2</v>
       </c>
       <c r="I47" s="1">
-        <v>0.85182029999999997</v>
+        <v>0.90530429999999995</v>
       </c>
       <c r="J47" s="1">
-        <v>5.7103390000000003</v>
+        <v>5.5817579999999998</v>
       </c>
       <c r="K47" s="1">
-        <v>11.980600000000001</v>
+        <v>13.3291</v>
       </c>
       <c r="L47" s="1">
-        <v>29.871749999999999</v>
+        <v>31.506599999999999</v>
       </c>
       <c r="M47" s="1">
-        <v>8.921424</v>
+        <v>9.4212150000000001</v>
       </c>
       <c r="N47" s="1">
-        <v>16.841149999999999</v>
+        <v>16.721489999999999</v>
       </c>
       <c r="O47" s="1">
-        <v>999.18960000000004</v>
+        <v>999.18949999999995</v>
       </c>
       <c r="P47" s="1">
         <v>46.904644820000001</v>
@@ -2949,49 +3000,49 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>45098.548460648148</v>
+        <v>45098.548472222225</v>
       </c>
       <c r="B48" s="1">
-        <v>8.2823229999999999</v>
+        <v>8.287236</v>
       </c>
       <c r="C48" s="1">
-        <v>10.60121</v>
+        <v>10.612920000000001</v>
       </c>
       <c r="D48" s="1">
-        <v>61.42521</v>
+        <v>61.392479999999999</v>
       </c>
       <c r="E48" s="1">
-        <v>98.136799999999994</v>
+        <v>98.137730000000005</v>
       </c>
       <c r="F48" s="1">
-        <v>4.4911840000000001E-2</v>
+        <v>4.490951E-2</v>
       </c>
       <c r="G48" s="1">
-        <v>0.99999479999999996</v>
+        <v>0.99999519999999997</v>
       </c>
       <c r="H48" s="1">
-        <v>6.3792409999999994E-2</v>
+        <v>6.3792100000000004E-2</v>
       </c>
       <c r="I48" s="1">
-        <v>0.90530429999999995</v>
+        <v>0.9078811</v>
       </c>
       <c r="J48" s="1">
-        <v>5.5817579999999998</v>
+        <v>5.5690840000000001</v>
       </c>
       <c r="K48" s="1">
-        <v>13.3291</v>
+        <v>13.4102</v>
       </c>
       <c r="L48" s="1">
-        <v>31.506599999999999</v>
+        <v>31.65043</v>
       </c>
       <c r="M48" s="1">
-        <v>9.4212150000000001</v>
+        <v>9.4651929999999993</v>
       </c>
       <c r="N48" s="1">
-        <v>16.721489999999999</v>
+        <v>16.715450000000001</v>
       </c>
       <c r="O48" s="1">
-        <v>999.18949999999995</v>
+        <v>999.18960000000004</v>
       </c>
       <c r="P48" s="1">
         <v>46.904644820000001</v>
@@ -3003,103 +3054,103 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>45098.548472222225</v>
+        <v>45098.548483796294</v>
       </c>
       <c r="B49" s="1">
-        <v>8.287236</v>
+        <v>8.2921490000000002</v>
       </c>
       <c r="C49" s="1">
-        <v>10.612920000000001</v>
+        <v>10.62463</v>
       </c>
       <c r="D49" s="1">
-        <v>61.392479999999999</v>
+        <v>61.359749999999998</v>
       </c>
       <c r="E49" s="1">
-        <v>98.137730000000005</v>
+        <v>98.138660000000002</v>
       </c>
       <c r="F49" s="1">
-        <v>4.490951E-2</v>
+        <v>4.490719E-2</v>
       </c>
       <c r="G49" s="1">
-        <v>0.99999519999999997</v>
+        <v>0.99999559999999998</v>
       </c>
       <c r="H49" s="1">
-        <v>6.3792100000000004E-2</v>
+        <v>6.3791790000000001E-2</v>
       </c>
       <c r="I49" s="1">
-        <v>0.9078811</v>
+        <v>0.91045799999999999</v>
       </c>
       <c r="J49" s="1">
-        <v>5.5690840000000001</v>
+        <v>5.5564099999999996</v>
       </c>
       <c r="K49" s="1">
-        <v>13.4102</v>
+        <v>13.491300000000001</v>
       </c>
       <c r="L49" s="1">
-        <v>31.65043</v>
+        <v>31.794260000000001</v>
       </c>
       <c r="M49" s="1">
-        <v>9.4651929999999993</v>
+        <v>9.5091710000000003</v>
       </c>
       <c r="N49" s="1">
-        <v>16.715450000000001</v>
+        <v>16.709409999999998</v>
       </c>
       <c r="O49" s="1">
-        <v>999.18960000000004</v>
+        <v>999.18979999999999</v>
       </c>
       <c r="P49" s="1">
-        <v>46.904644820000001</v>
+        <v>46.90463467</v>
       </c>
       <c r="Q49" s="1">
-        <v>-91.036247130000007</v>
+        <v>-91.036254380000003</v>
       </c>
       <c r="R49" s="1"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>45098.548483796294</v>
+        <v>45098.548495370371</v>
       </c>
       <c r="B50" s="1">
-        <v>8.2921490000000002</v>
+        <v>8.6582469999999994</v>
       </c>
       <c r="C50" s="1">
-        <v>10.62463</v>
+        <v>10.737299999999999</v>
       </c>
       <c r="D50" s="1">
-        <v>61.359749999999998</v>
+        <v>61.230339999999998</v>
       </c>
       <c r="E50" s="1">
-        <v>98.138660000000002</v>
+        <v>98.350939999999994</v>
       </c>
       <c r="F50" s="1">
-        <v>4.490719E-2</v>
+        <v>4.4985400000000002E-2</v>
       </c>
       <c r="G50" s="1">
-        <v>0.99999559999999998</v>
+        <v>0.99999859999999996</v>
       </c>
       <c r="H50" s="1">
-        <v>6.3791790000000001E-2</v>
+        <v>6.3929040000000006E-2</v>
       </c>
       <c r="I50" s="1">
-        <v>0.91045799999999999</v>
+        <v>1.073043</v>
       </c>
       <c r="J50" s="1">
-        <v>5.5564099999999996</v>
+        <v>5.2581170000000004</v>
       </c>
       <c r="K50" s="1">
-        <v>13.491300000000001</v>
+        <v>14.10244</v>
       </c>
       <c r="L50" s="1">
-        <v>31.794260000000001</v>
+        <v>33.170580000000001</v>
       </c>
       <c r="M50" s="1">
-        <v>9.5091710000000003</v>
+        <v>9.9283780000000004</v>
       </c>
       <c r="N50" s="1">
-        <v>16.709409999999998</v>
+        <v>16.827259999999999</v>
       </c>
       <c r="O50" s="1">
-        <v>999.18979999999999</v>
+        <v>999.18100000000004</v>
       </c>
       <c r="P50" s="1">
         <v>46.90463467</v>
@@ -3111,49 +3162,49 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>45098.548495370371</v>
+        <v>45098.548506944448</v>
       </c>
       <c r="B51" s="1">
-        <v>8.6582469999999994</v>
+        <v>8.6793990000000001</v>
       </c>
       <c r="C51" s="1">
-        <v>10.737299999999999</v>
+        <v>10.745570000000001</v>
       </c>
       <c r="D51" s="1">
-        <v>61.230339999999998</v>
+        <v>61.21161</v>
       </c>
       <c r="E51" s="1">
-        <v>98.350939999999994</v>
+        <v>98.361429999999999</v>
       </c>
       <c r="F51" s="1">
-        <v>4.4985400000000002E-2</v>
+        <v>4.4988239999999999E-2</v>
       </c>
       <c r="G51" s="1">
-        <v>0.99999859999999996</v>
+        <v>0.99999890000000002</v>
       </c>
       <c r="H51" s="1">
-        <v>6.3929040000000006E-2</v>
+        <v>6.3935179999999994E-2</v>
       </c>
       <c r="I51" s="1">
-        <v>1.073043</v>
+        <v>1.082543</v>
       </c>
       <c r="J51" s="1">
-        <v>5.2581170000000004</v>
+        <v>5.2398959999999999</v>
       </c>
       <c r="K51" s="1">
-        <v>14.10244</v>
+        <v>14.16306</v>
       </c>
       <c r="L51" s="1">
-        <v>33.170580000000001</v>
+        <v>33.278370000000002</v>
       </c>
       <c r="M51" s="1">
-        <v>9.9283780000000004</v>
+        <v>9.9612490000000005</v>
       </c>
       <c r="N51" s="1">
-        <v>16.827259999999999</v>
+        <v>16.830729999999999</v>
       </c>
       <c r="O51" s="1">
-        <v>999.18100000000004</v>
+        <v>999.18050000000005</v>
       </c>
       <c r="P51" s="1">
         <v>46.90463467</v>
@@ -3165,103 +3216,103 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>45098.548506944448</v>
+        <v>45098.548518518517</v>
       </c>
       <c r="B52" s="1">
-        <v>8.6793990000000001</v>
+        <v>8.7005529999999993</v>
       </c>
       <c r="C52" s="1">
-        <v>10.745570000000001</v>
+        <v>10.75385</v>
       </c>
       <c r="D52" s="1">
-        <v>61.21161</v>
+        <v>61.192869999999999</v>
       </c>
       <c r="E52" s="1">
-        <v>98.361429999999999</v>
+        <v>98.371930000000006</v>
       </c>
       <c r="F52" s="1">
-        <v>4.4988239999999999E-2</v>
+        <v>4.4991080000000003E-2</v>
       </c>
       <c r="G52" s="1">
-        <v>0.99999890000000002</v>
+        <v>0.99999919999999998</v>
       </c>
       <c r="H52" s="1">
-        <v>6.3935179999999994E-2</v>
+        <v>6.3941319999999996E-2</v>
       </c>
       <c r="I52" s="1">
-        <v>1.082543</v>
+        <v>1.092042</v>
       </c>
       <c r="J52" s="1">
-        <v>5.2398959999999999</v>
+        <v>5.2216740000000001</v>
       </c>
       <c r="K52" s="1">
-        <v>14.16306</v>
+        <v>14.22368</v>
       </c>
       <c r="L52" s="1">
-        <v>33.278370000000002</v>
+        <v>33.386150000000001</v>
       </c>
       <c r="M52" s="1">
-        <v>9.9612490000000005</v>
+        <v>9.9941209999999998</v>
       </c>
       <c r="N52" s="1">
-        <v>16.830729999999999</v>
+        <v>16.834199999999999</v>
       </c>
       <c r="O52" s="1">
-        <v>999.18050000000005</v>
+        <v>999.18010000000004</v>
       </c>
       <c r="P52" s="1">
-        <v>46.90463467</v>
+        <v>46.904629049999997</v>
       </c>
       <c r="Q52" s="1">
-        <v>-91.036254380000003</v>
+        <v>-91.036265819999997</v>
       </c>
       <c r="R52" s="1"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>45098.548518518517</v>
+        <v>45098.548530092594</v>
       </c>
       <c r="B53" s="1">
-        <v>8.7005529999999993</v>
+        <v>8.5587140000000002</v>
       </c>
       <c r="C53" s="1">
-        <v>10.75385</v>
+        <v>10.75159</v>
       </c>
       <c r="D53" s="1">
-        <v>61.192869999999999</v>
+        <v>61.202210000000001</v>
       </c>
       <c r="E53" s="1">
-        <v>98.371930000000006</v>
+        <v>98.548019999999994</v>
       </c>
       <c r="F53" s="1">
-        <v>4.4991080000000003E-2</v>
+        <v>4.5065809999999998E-2</v>
       </c>
       <c r="G53" s="1">
-        <v>0.99999919999999998</v>
+        <v>1.0000020000000001</v>
       </c>
       <c r="H53" s="1">
-        <v>6.3941319999999996E-2</v>
+        <v>6.4234609999999998E-2</v>
       </c>
       <c r="I53" s="1">
-        <v>1.092042</v>
+        <v>1.0359069999999999</v>
       </c>
       <c r="J53" s="1">
-        <v>5.2216740000000001</v>
+        <v>5.1646400000000003</v>
       </c>
       <c r="K53" s="1">
-        <v>14.22368</v>
+        <v>15.48681</v>
       </c>
       <c r="L53" s="1">
-        <v>33.386150000000001</v>
+        <v>36.339570000000002</v>
       </c>
       <c r="M53" s="1">
-        <v>9.9941209999999998</v>
+        <v>10.888310000000001</v>
       </c>
       <c r="N53" s="1">
-        <v>16.834199999999999</v>
+        <v>16.80594</v>
       </c>
       <c r="O53" s="1">
-        <v>999.18010000000004</v>
+        <v>999.19730000000004</v>
       </c>
       <c r="P53" s="1">
         <v>46.904629049999997</v>
@@ -3273,49 +3324,49 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>45098.548530092594</v>
+        <v>45098.548541666663</v>
       </c>
       <c r="B54" s="1">
-        <v>8.5587140000000002</v>
+        <v>8.5593489999999992</v>
       </c>
       <c r="C54" s="1">
-        <v>10.75159</v>
+        <v>10.75404</v>
       </c>
       <c r="D54" s="1">
-        <v>61.202210000000001</v>
+        <v>61.199550000000002</v>
       </c>
       <c r="E54" s="1">
-        <v>98.548019999999994</v>
+        <v>98.561549999999997</v>
       </c>
       <c r="F54" s="1">
-        <v>4.5065809999999998E-2</v>
+        <v>4.5071269999999997E-2</v>
       </c>
       <c r="G54" s="1">
         <v>1.0000020000000001</v>
       </c>
       <c r="H54" s="1">
-        <v>6.4234609999999998E-2</v>
+        <v>6.4252500000000004E-2</v>
       </c>
       <c r="I54" s="1">
-        <v>1.0359069999999999</v>
+        <v>1.0365439999999999</v>
       </c>
       <c r="J54" s="1">
-        <v>5.1646400000000003</v>
+        <v>5.1551910000000003</v>
       </c>
       <c r="K54" s="1">
-        <v>15.48681</v>
+        <v>15.56521</v>
       </c>
       <c r="L54" s="1">
-        <v>36.339570000000002</v>
+        <v>36.521430000000002</v>
       </c>
       <c r="M54" s="1">
-        <v>10.888310000000001</v>
+        <v>10.943429999999999</v>
       </c>
       <c r="N54" s="1">
-        <v>16.80594</v>
+        <v>16.80696</v>
       </c>
       <c r="O54" s="1">
-        <v>999.19730000000004</v>
+        <v>999.1979</v>
       </c>
       <c r="P54" s="1">
         <v>46.904629049999997</v>
@@ -3327,49 +3378,49 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>45098.548541666663</v>
+        <v>45098.54855324074</v>
       </c>
       <c r="B55" s="1">
-        <v>8.5593489999999992</v>
+        <v>8.559984</v>
       </c>
       <c r="C55" s="1">
-        <v>10.75404</v>
+        <v>10.756489999999999</v>
       </c>
       <c r="D55" s="1">
-        <v>61.199550000000002</v>
+        <v>61.19688</v>
       </c>
       <c r="E55" s="1">
-        <v>98.561549999999997</v>
+        <v>98.575090000000003</v>
       </c>
       <c r="F55" s="1">
-        <v>4.5071269999999997E-2</v>
+        <v>4.5076730000000002E-2</v>
       </c>
       <c r="G55" s="1">
         <v>1.0000020000000001</v>
       </c>
       <c r="H55" s="1">
-        <v>6.4252500000000004E-2</v>
+        <v>6.4270400000000005E-2</v>
       </c>
       <c r="I55" s="1">
-        <v>1.0365439999999999</v>
+        <v>1.0371809999999999</v>
       </c>
       <c r="J55" s="1">
-        <v>5.1551910000000003</v>
+        <v>5.1457420000000003</v>
       </c>
       <c r="K55" s="1">
-        <v>15.56521</v>
+        <v>15.643610000000001</v>
       </c>
       <c r="L55" s="1">
-        <v>36.521430000000002</v>
+        <v>36.703290000000003</v>
       </c>
       <c r="M55" s="1">
-        <v>10.943429999999999</v>
+        <v>10.99855</v>
       </c>
       <c r="N55" s="1">
-        <v>16.80696</v>
+        <v>16.807970000000001</v>
       </c>
       <c r="O55" s="1">
-        <v>999.1979</v>
+        <v>999.19860000000006</v>
       </c>
       <c r="P55" s="1">
         <v>46.904629049999997</v>
@@ -3381,49 +3432,49 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>45098.54855324074</v>
+        <v>45098.548564814817</v>
       </c>
       <c r="B56" s="1">
-        <v>8.559984</v>
+        <v>8.4431360000000009</v>
       </c>
       <c r="C56" s="1">
-        <v>10.756489999999999</v>
+        <v>10.71001</v>
       </c>
       <c r="D56" s="1">
-        <v>61.19688</v>
+        <v>61.148400000000002</v>
       </c>
       <c r="E56" s="1">
-        <v>98.575090000000003</v>
+        <v>98.838610000000003</v>
       </c>
       <c r="F56" s="1">
-        <v>4.5076730000000002E-2</v>
+        <v>4.5182970000000003E-2</v>
       </c>
       <c r="G56" s="1">
-        <v>1.0000020000000001</v>
+        <v>1.000003</v>
       </c>
       <c r="H56" s="1">
-        <v>6.4270400000000005E-2</v>
+        <v>6.4267000000000005E-2</v>
       </c>
       <c r="I56" s="1">
-        <v>1.0371809999999999</v>
+        <v>1.125634</v>
       </c>
       <c r="J56" s="1">
-        <v>5.1457420000000003</v>
+        <v>5.0680959999999997</v>
       </c>
       <c r="K56" s="1">
-        <v>15.643610000000001</v>
+        <v>16.49943</v>
       </c>
       <c r="L56" s="1">
-        <v>36.703290000000003</v>
+        <v>38.66948</v>
       </c>
       <c r="M56" s="1">
-        <v>10.99855</v>
+        <v>11.60026</v>
       </c>
       <c r="N56" s="1">
-        <v>16.807970000000001</v>
+        <v>16.743259999999999</v>
       </c>
       <c r="O56" s="1">
-        <v>999.19860000000006</v>
+        <v>999.19899999999996</v>
       </c>
       <c r="P56" s="1">
         <v>46.904629049999997</v>
@@ -3435,103 +3486,103 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>45098.548564814817</v>
+        <v>45098.548576388886</v>
       </c>
       <c r="B57" s="1">
-        <v>8.4431360000000009</v>
+        <v>8.4342240000000004</v>
       </c>
       <c r="C57" s="1">
-        <v>10.71001</v>
+        <v>10.707599999999999</v>
       </c>
       <c r="D57" s="1">
-        <v>61.148400000000002</v>
+        <v>61.145850000000003</v>
       </c>
       <c r="E57" s="1">
-        <v>98.838610000000003</v>
+        <v>98.856110000000001</v>
       </c>
       <c r="F57" s="1">
-        <v>4.5182970000000003E-2</v>
+        <v>4.5190090000000002E-2</v>
       </c>
       <c r="G57" s="1">
         <v>1.000003</v>
       </c>
       <c r="H57" s="1">
-        <v>6.4267000000000005E-2</v>
+        <v>6.4272960000000004E-2</v>
       </c>
       <c r="I57" s="1">
-        <v>1.125634</v>
+        <v>1.129157</v>
       </c>
       <c r="J57" s="1">
-        <v>5.0680959999999997</v>
+        <v>5.062716</v>
       </c>
       <c r="K57" s="1">
-        <v>16.49943</v>
+        <v>16.57105</v>
       </c>
       <c r="L57" s="1">
-        <v>38.66948</v>
+        <v>38.834679999999999</v>
       </c>
       <c r="M57" s="1">
-        <v>11.60026</v>
+        <v>11.65061</v>
       </c>
       <c r="N57" s="1">
-        <v>16.743259999999999</v>
+        <v>16.73929</v>
       </c>
       <c r="O57" s="1">
-        <v>999.19899999999996</v>
+        <v>999.19949999999994</v>
       </c>
       <c r="P57" s="1">
-        <v>46.904629049999997</v>
+        <v>46.904630019999999</v>
       </c>
       <c r="Q57" s="1">
-        <v>-91.036265819999997</v>
+        <v>-91.036286419999996</v>
       </c>
       <c r="R57" s="1"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>45098.548576388886</v>
+        <v>45098.548587962963</v>
       </c>
       <c r="B58" s="1">
-        <v>8.4342240000000004</v>
+        <v>8.4253119999999999</v>
       </c>
       <c r="C58" s="1">
-        <v>10.707599999999999</v>
+        <v>10.70519</v>
       </c>
       <c r="D58" s="1">
-        <v>61.145850000000003</v>
+        <v>61.14331</v>
       </c>
       <c r="E58" s="1">
-        <v>98.856110000000001</v>
+        <v>98.873609999999999</v>
       </c>
       <c r="F58" s="1">
-        <v>4.5190090000000002E-2</v>
+        <v>4.5197210000000002E-2</v>
       </c>
       <c r="G58" s="1">
         <v>1.000003</v>
       </c>
       <c r="H58" s="1">
-        <v>6.4272960000000004E-2</v>
+        <v>6.4278920000000003E-2</v>
       </c>
       <c r="I58" s="1">
-        <v>1.129157</v>
+        <v>1.132679</v>
       </c>
       <c r="J58" s="1">
-        <v>5.062716</v>
+        <v>5.0573360000000003</v>
       </c>
       <c r="K58" s="1">
-        <v>16.57105</v>
+        <v>16.642669999999999</v>
       </c>
       <c r="L58" s="1">
-        <v>38.834679999999999</v>
+        <v>38.999879999999997</v>
       </c>
       <c r="M58" s="1">
-        <v>11.65061</v>
+        <v>11.70096</v>
       </c>
       <c r="N58" s="1">
-        <v>16.73929</v>
+        <v>16.735320000000002</v>
       </c>
       <c r="O58" s="1">
-        <v>999.19949999999994</v>
+        <v>999.19979999999998</v>
       </c>
       <c r="P58" s="1">
         <v>46.904630019999999</v>
@@ -3543,49 +3594,49 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>45098.548587962963</v>
+        <v>45098.54859953704</v>
       </c>
       <c r="B59" s="1">
-        <v>8.4253119999999999</v>
+        <v>8.8795579999999994</v>
       </c>
       <c r="C59" s="1">
-        <v>10.70519</v>
+        <v>10.71031</v>
       </c>
       <c r="D59" s="1">
-        <v>61.14331</v>
+        <v>61.162260000000003</v>
       </c>
       <c r="E59" s="1">
-        <v>98.873609999999999</v>
+        <v>99.142510000000001</v>
       </c>
       <c r="F59" s="1">
-        <v>4.5197210000000002E-2</v>
+        <v>4.5311450000000003E-2</v>
       </c>
       <c r="G59" s="1">
-        <v>1.000003</v>
+        <v>1.0000039999999999</v>
       </c>
       <c r="H59" s="1">
-        <v>6.4278920000000003E-2</v>
+        <v>6.4344200000000004E-2</v>
       </c>
       <c r="I59" s="1">
-        <v>1.132679</v>
+        <v>1.1029910000000001</v>
       </c>
       <c r="J59" s="1">
-        <v>5.0573360000000003</v>
+        <v>4.9475949999999997</v>
       </c>
       <c r="K59" s="1">
-        <v>16.642669999999999</v>
+        <v>17.082699999999999</v>
       </c>
       <c r="L59" s="1">
-        <v>38.999879999999997</v>
+        <v>39.99277</v>
       </c>
       <c r="M59" s="1">
-        <v>11.70096</v>
+        <v>12.153370000000001</v>
       </c>
       <c r="N59" s="1">
-        <v>16.735320000000002</v>
+        <v>16.69631</v>
       </c>
       <c r="O59" s="1">
-        <v>999.19979999999998</v>
+        <v>999.19970000000001</v>
       </c>
       <c r="P59" s="1">
         <v>46.904630019999999</v>
@@ -3597,46 +3648,46 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>45098.54859953704</v>
+        <v>45098.548611111109</v>
       </c>
       <c r="B60" s="1">
-        <v>8.8795579999999994</v>
+        <v>8.9005930000000006</v>
       </c>
       <c r="C60" s="1">
-        <v>10.71031</v>
+        <v>10.7096</v>
       </c>
       <c r="D60" s="1">
-        <v>61.162260000000003</v>
+        <v>61.16216</v>
       </c>
       <c r="E60" s="1">
-        <v>99.142510000000001</v>
+        <v>99.162120000000002</v>
       </c>
       <c r="F60" s="1">
-        <v>4.5311450000000003E-2</v>
+        <v>4.5319659999999998E-2</v>
       </c>
       <c r="G60" s="1">
         <v>1.0000039999999999</v>
       </c>
       <c r="H60" s="1">
-        <v>6.4344200000000004E-2</v>
+        <v>6.4347509999999997E-2</v>
       </c>
       <c r="I60" s="1">
-        <v>1.1029910000000001</v>
+        <v>1.103407</v>
       </c>
       <c r="J60" s="1">
-        <v>4.9475949999999997</v>
+        <v>4.9401910000000004</v>
       </c>
       <c r="K60" s="1">
-        <v>17.082699999999999</v>
+        <v>17.123899999999999</v>
       </c>
       <c r="L60" s="1">
-        <v>39.99277</v>
+        <v>40.086480000000002</v>
       </c>
       <c r="M60" s="1">
-        <v>12.153370000000001</v>
+        <v>12.189730000000001</v>
       </c>
       <c r="N60" s="1">
-        <v>16.69631</v>
+        <v>16.692920000000001</v>
       </c>
       <c r="O60" s="1">
         <v>999.19970000000001</v>
@@ -3651,46 +3702,46 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>45098.548611111109</v>
+        <v>45098.548622685186</v>
       </c>
       <c r="B61" s="1">
-        <v>8.9005930000000006</v>
+        <v>8.9216280000000001</v>
       </c>
       <c r="C61" s="1">
-        <v>10.7096</v>
+        <v>10.70889</v>
       </c>
       <c r="D61" s="1">
-        <v>61.16216</v>
+        <v>61.162059999999997</v>
       </c>
       <c r="E61" s="1">
-        <v>99.162120000000002</v>
+        <v>99.181719999999999</v>
       </c>
       <c r="F61" s="1">
-        <v>4.5319659999999998E-2</v>
+        <v>4.5327859999999998E-2</v>
       </c>
       <c r="G61" s="1">
         <v>1.0000039999999999</v>
       </c>
       <c r="H61" s="1">
-        <v>6.4347509999999997E-2</v>
+        <v>6.43508E-2</v>
       </c>
       <c r="I61" s="1">
-        <v>1.103407</v>
+        <v>1.103823</v>
       </c>
       <c r="J61" s="1">
-        <v>4.9401910000000004</v>
+        <v>4.9327870000000003</v>
       </c>
       <c r="K61" s="1">
-        <v>17.123899999999999</v>
+        <v>17.165099999999999</v>
       </c>
       <c r="L61" s="1">
-        <v>40.086480000000002</v>
+        <v>40.180199999999999</v>
       </c>
       <c r="M61" s="1">
-        <v>12.189730000000001</v>
+        <v>12.22608</v>
       </c>
       <c r="N61" s="1">
-        <v>16.692920000000001</v>
+        <v>16.689540000000001</v>
       </c>
       <c r="O61" s="1">
         <v>999.19970000000001</v>
@@ -3705,49 +3756,49 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>45098.548622685186</v>
+        <v>45098.548634259256</v>
       </c>
       <c r="B62" s="1">
-        <v>8.9216280000000001</v>
+        <v>8.3090349999999997</v>
       </c>
       <c r="C62" s="1">
-        <v>10.70889</v>
+        <v>10.67271</v>
       </c>
       <c r="D62" s="1">
-        <v>61.162059999999997</v>
+        <v>61.153550000000003</v>
       </c>
       <c r="E62" s="1">
-        <v>99.181719999999999</v>
+        <v>98.902940000000001</v>
       </c>
       <c r="F62" s="1">
-        <v>4.5327859999999998E-2</v>
+        <v>4.5210390000000003E-2</v>
       </c>
       <c r="G62" s="1">
-        <v>1.0000039999999999</v>
+        <v>1.000003</v>
       </c>
       <c r="H62" s="1">
-        <v>6.43508E-2</v>
+        <v>6.4272280000000001E-2</v>
       </c>
       <c r="I62" s="1">
-        <v>1.103823</v>
+        <v>1.2526010000000001</v>
       </c>
       <c r="J62" s="1">
-        <v>4.9327870000000003</v>
+        <v>4.9723350000000002</v>
       </c>
       <c r="K62" s="1">
-        <v>17.165099999999999</v>
+        <v>17.366440000000001</v>
       </c>
       <c r="L62" s="1">
-        <v>40.180199999999999</v>
+        <v>40.157429999999998</v>
       </c>
       <c r="M62" s="1">
-        <v>12.22608</v>
+        <v>12.229649999999999</v>
       </c>
       <c r="N62" s="1">
-        <v>16.689540000000001</v>
+        <v>16.788239999999998</v>
       </c>
       <c r="O62" s="1">
-        <v>999.19970000000001</v>
+        <v>999.19129999999996</v>
       </c>
       <c r="P62" s="1">
         <v>46.904630019999999</v>
@@ -3759,49 +3810,49 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>45098.548634259256</v>
+        <v>45098.548645833333</v>
       </c>
       <c r="B63" s="1">
-        <v>8.3090349999999997</v>
+        <v>8.2862600000000004</v>
       </c>
       <c r="C63" s="1">
-        <v>10.67271</v>
+        <v>10.670920000000001</v>
       </c>
       <c r="D63" s="1">
-        <v>61.153550000000003</v>
+        <v>61.153489999999998</v>
       </c>
       <c r="E63" s="1">
-        <v>98.902940000000001</v>
+        <v>98.893870000000007</v>
       </c>
       <c r="F63" s="1">
-        <v>4.5210390000000003E-2</v>
+        <v>4.5206580000000003E-2</v>
       </c>
       <c r="G63" s="1">
         <v>1.000003</v>
       </c>
       <c r="H63" s="1">
-        <v>6.4272280000000001E-2</v>
+        <v>6.426954E-2</v>
       </c>
       <c r="I63" s="1">
-        <v>1.2526010000000001</v>
+        <v>1.259781</v>
       </c>
       <c r="J63" s="1">
-        <v>4.9723350000000002</v>
+        <v>4.972143</v>
       </c>
       <c r="K63" s="1">
-        <v>17.366440000000001</v>
+        <v>17.386189999999999</v>
       </c>
       <c r="L63" s="1">
-        <v>40.157429999999998</v>
+        <v>40.17698</v>
       </c>
       <c r="M63" s="1">
-        <v>12.229649999999999</v>
+        <v>12.23926</v>
       </c>
       <c r="N63" s="1">
-        <v>16.788239999999998</v>
+        <v>16.792619999999999</v>
       </c>
       <c r="O63" s="1">
-        <v>999.19129999999996</v>
+        <v>999.19079999999997</v>
       </c>
       <c r="P63" s="1">
         <v>46.904630019999999</v>
@@ -3813,103 +3864,103 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>45098.548645833333</v>
+        <v>45098.548657407409</v>
       </c>
       <c r="B64" s="1">
-        <v>8.2862600000000004</v>
+        <v>8.2634840000000001</v>
       </c>
       <c r="C64" s="1">
-        <v>10.670920000000001</v>
+        <v>10.669129999999999</v>
       </c>
       <c r="D64" s="1">
-        <v>61.153489999999998</v>
+        <v>61.153440000000003</v>
       </c>
       <c r="E64" s="1">
-        <v>98.893870000000007</v>
+        <v>98.884789999999995</v>
       </c>
       <c r="F64" s="1">
-        <v>4.5206580000000003E-2</v>
+        <v>4.5202779999999998E-2</v>
       </c>
       <c r="G64" s="1">
         <v>1.000003</v>
       </c>
       <c r="H64" s="1">
-        <v>6.426954E-2</v>
+        <v>6.4266809999999994E-2</v>
       </c>
       <c r="I64" s="1">
-        <v>1.259781</v>
+        <v>1.266961</v>
       </c>
       <c r="J64" s="1">
-        <v>4.972143</v>
+        <v>4.9719499999999996</v>
       </c>
       <c r="K64" s="1">
-        <v>17.386189999999999</v>
+        <v>17.405950000000001</v>
       </c>
       <c r="L64" s="1">
-        <v>40.17698</v>
+        <v>40.196530000000003</v>
       </c>
       <c r="M64" s="1">
-        <v>12.23926</v>
+        <v>12.248860000000001</v>
       </c>
       <c r="N64" s="1">
-        <v>16.792619999999999</v>
+        <v>16.796990000000001</v>
       </c>
       <c r="O64" s="1">
-        <v>999.19079999999997</v>
+        <v>999.19039999999995</v>
       </c>
       <c r="P64" s="1">
-        <v>46.904630019999999</v>
+        <v>46.90462179</v>
       </c>
       <c r="Q64" s="1">
-        <v>-91.036286419999996</v>
+        <v>-91.036292599999996</v>
       </c>
       <c r="R64" s="1"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>45098.548657407409</v>
+        <v>45098.548668981479</v>
       </c>
       <c r="B65" s="1">
-        <v>8.2634840000000001</v>
+        <v>8.2407070000000004</v>
       </c>
       <c r="C65" s="1">
-        <v>10.669129999999999</v>
+        <v>10.667339999999999</v>
       </c>
       <c r="D65" s="1">
-        <v>61.153440000000003</v>
+        <v>61.153390000000002</v>
       </c>
       <c r="E65" s="1">
-        <v>98.884789999999995</v>
+        <v>98.875720000000001</v>
       </c>
       <c r="F65" s="1">
-        <v>4.5202779999999998E-2</v>
+        <v>4.5198969999999998E-2</v>
       </c>
       <c r="G65" s="1">
         <v>1.000003</v>
       </c>
       <c r="H65" s="1">
-        <v>6.4266809999999994E-2</v>
+        <v>6.4264070000000006E-2</v>
       </c>
       <c r="I65" s="1">
-        <v>1.266961</v>
+        <v>1.274141</v>
       </c>
       <c r="J65" s="1">
-        <v>4.9719499999999996</v>
+        <v>4.9717580000000003</v>
       </c>
       <c r="K65" s="1">
-        <v>17.405950000000001</v>
+        <v>17.425699999999999</v>
       </c>
       <c r="L65" s="1">
-        <v>40.196530000000003</v>
+        <v>40.216079999999998</v>
       </c>
       <c r="M65" s="1">
-        <v>12.248860000000001</v>
+        <v>12.258459999999999</v>
       </c>
       <c r="N65" s="1">
-        <v>16.796990000000001</v>
+        <v>16.801369999999999</v>
       </c>
       <c r="O65" s="1">
-        <v>999.19039999999995</v>
+        <v>999.18989999999997</v>
       </c>
       <c r="P65" s="1">
         <v>46.90462179</v>
@@ -3921,49 +3972,49 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>45098.548668981479</v>
+        <v>45098.548680555556</v>
       </c>
       <c r="B66" s="1">
-        <v>8.2407070000000004</v>
+        <v>11.810589999999999</v>
       </c>
       <c r="C66" s="1">
-        <v>10.667339999999999</v>
+        <v>10.661659999999999</v>
       </c>
       <c r="D66" s="1">
-        <v>61.153390000000002</v>
+        <v>61.206420000000001</v>
       </c>
       <c r="E66" s="1">
-        <v>98.875720000000001</v>
+        <v>98.773570000000007</v>
       </c>
       <c r="F66" s="1">
-        <v>4.5198969999999998E-2</v>
+        <v>4.5160819999999997E-2</v>
       </c>
       <c r="G66" s="1">
-        <v>1.000003</v>
+        <v>1.0000020000000001</v>
       </c>
       <c r="H66" s="1">
-        <v>6.4264070000000006E-2</v>
+        <v>6.4199980000000004E-2</v>
       </c>
       <c r="I66" s="1">
-        <v>1.274141</v>
+        <v>1.761018</v>
       </c>
       <c r="J66" s="1">
-        <v>4.9717580000000003</v>
+        <v>5.0818370000000002</v>
       </c>
       <c r="K66" s="1">
-        <v>17.425699999999999</v>
+        <v>17.41872</v>
       </c>
       <c r="L66" s="1">
-        <v>40.216079999999998</v>
+        <v>40.199620000000003</v>
       </c>
       <c r="M66" s="1">
-        <v>12.258459999999999</v>
+        <v>12.25043</v>
       </c>
       <c r="N66" s="1">
-        <v>16.801369999999999</v>
+        <v>16.76183</v>
       </c>
       <c r="O66" s="1">
-        <v>999.18989999999997</v>
+        <v>999.2251</v>
       </c>
       <c r="P66" s="1">
         <v>46.90462179</v>
@@ -3975,49 +4026,49 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>45098.548680555556</v>
+        <v>45098.548692129632</v>
       </c>
       <c r="B67" s="1">
-        <v>11.810589999999999</v>
+        <v>11.9764</v>
       </c>
       <c r="C67" s="1">
-        <v>10.661659999999999</v>
+        <v>10.66056</v>
       </c>
       <c r="D67" s="1">
-        <v>61.206420000000001</v>
+        <v>61.208889999999997</v>
       </c>
       <c r="E67" s="1">
-        <v>98.773570000000007</v>
+        <v>98.762320000000003</v>
       </c>
       <c r="F67" s="1">
-        <v>4.5160819999999997E-2</v>
+        <v>4.5156330000000001E-2</v>
       </c>
       <c r="G67" s="1">
         <v>1.0000020000000001</v>
       </c>
       <c r="H67" s="1">
-        <v>6.4199980000000004E-2</v>
+        <v>6.4195020000000005E-2</v>
       </c>
       <c r="I67" s="1">
-        <v>1.761018</v>
+        <v>1.7888139999999999</v>
       </c>
       <c r="J67" s="1">
-        <v>5.0818370000000002</v>
+        <v>5.0882040000000002</v>
       </c>
       <c r="K67" s="1">
-        <v>17.41872</v>
+        <v>17.42313</v>
       </c>
       <c r="L67" s="1">
-        <v>40.199620000000003</v>
+        <v>40.198869999999999</v>
       </c>
       <c r="M67" s="1">
-        <v>12.25043</v>
+        <v>12.250349999999999</v>
       </c>
       <c r="N67" s="1">
-        <v>16.76183</v>
+        <v>16.762029999999999</v>
       </c>
       <c r="O67" s="1">
-        <v>999.2251</v>
+        <v>999.22670000000005</v>
       </c>
       <c r="P67" s="1">
         <v>46.90462179</v>
@@ -4029,49 +4080,49 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>45098.548692129632</v>
+        <v>45098.548703703702</v>
       </c>
       <c r="B68" s="1">
-        <v>11.9764</v>
+        <v>12.14222</v>
       </c>
       <c r="C68" s="1">
-        <v>10.66056</v>
+        <v>10.659459999999999</v>
       </c>
       <c r="D68" s="1">
-        <v>61.208889999999997</v>
+        <v>61.211370000000002</v>
       </c>
       <c r="E68" s="1">
-        <v>98.762320000000003</v>
+        <v>98.751069999999999</v>
       </c>
       <c r="F68" s="1">
-        <v>4.5156330000000001E-2</v>
+        <v>4.5151829999999997E-2</v>
       </c>
       <c r="G68" s="1">
-        <v>1.0000020000000001</v>
+        <v>1.0000009999999999</v>
       </c>
       <c r="H68" s="1">
-        <v>6.4195020000000005E-2</v>
+        <v>6.4190070000000002E-2</v>
       </c>
       <c r="I68" s="1">
-        <v>1.7888139999999999</v>
+        <v>1.816611</v>
       </c>
       <c r="J68" s="1">
-        <v>5.0882040000000002</v>
+        <v>5.0945710000000002</v>
       </c>
       <c r="K68" s="1">
-        <v>17.42313</v>
+        <v>17.42755</v>
       </c>
       <c r="L68" s="1">
-        <v>40.198869999999999</v>
+        <v>40.19811</v>
       </c>
       <c r="M68" s="1">
-        <v>12.250349999999999</v>
+        <v>12.250260000000001</v>
       </c>
       <c r="N68" s="1">
-        <v>16.762029999999999</v>
+        <v>16.762239999999998</v>
       </c>
       <c r="O68" s="1">
-        <v>999.22670000000005</v>
+        <v>999.22829999999999</v>
       </c>
       <c r="P68" s="1">
         <v>46.90462179</v>
@@ -4083,49 +4134,49 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>45098.548703703702</v>
+        <v>45098.548715277779</v>
       </c>
       <c r="B69" s="1">
-        <v>12.14222</v>
+        <v>39.174790000000002</v>
       </c>
       <c r="C69" s="1">
-        <v>10.659459999999999</v>
+        <v>10.7562</v>
       </c>
       <c r="D69" s="1">
-        <v>61.211370000000002</v>
+        <v>61.284730000000003</v>
       </c>
       <c r="E69" s="1">
-        <v>98.751069999999999</v>
+        <v>98.742900000000006</v>
       </c>
       <c r="F69" s="1">
-        <v>4.5151829999999997E-2</v>
+        <v>4.5125650000000003E-2</v>
       </c>
       <c r="G69" s="1">
-        <v>1.0000009999999999</v>
+        <v>1</v>
       </c>
       <c r="H69" s="1">
-        <v>6.4190070000000002E-2</v>
+        <v>6.4136449999999998E-2</v>
       </c>
       <c r="I69" s="1">
-        <v>1.816611</v>
+        <v>1.910158</v>
       </c>
       <c r="J69" s="1">
-        <v>5.0945710000000002</v>
+        <v>5.1372879999999999</v>
       </c>
       <c r="K69" s="1">
-        <v>17.42755</v>
+        <v>17.475719999999999</v>
       </c>
       <c r="L69" s="1">
-        <v>40.19811</v>
+        <v>40.315620000000003</v>
       </c>
       <c r="M69" s="1">
-        <v>12.250260000000001</v>
+        <v>12.28665</v>
       </c>
       <c r="N69" s="1">
-        <v>16.762239999999998</v>
+        <v>16.705300000000001</v>
       </c>
       <c r="O69" s="1">
-        <v>999.22829999999999</v>
+        <v>999.20249999999999</v>
       </c>
       <c r="P69" s="1">
         <v>46.90462179</v>
@@ -4137,84 +4188,30 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>45098.548715277779</v>
+        <v>45098.548726851855</v>
       </c>
       <c r="B70" s="1">
-        <v>39.174790000000002</v>
+        <v>40.617579999999997</v>
       </c>
       <c r="C70" s="1">
-        <v>10.7562</v>
+        <v>10.760949999999999</v>
       </c>
       <c r="D70" s="1">
-        <v>61.284730000000003</v>
+        <v>61.289569999999998</v>
       </c>
       <c r="E70" s="1">
-        <v>98.742900000000006</v>
+        <v>98.740179999999995</v>
       </c>
       <c r="F70" s="1">
-        <v>4.5125650000000003E-2</v>
+        <v>4.5123459999999997E-2</v>
       </c>
       <c r="G70" s="1">
         <v>1</v>
       </c>
       <c r="H70" s="1">
-        <v>6.4136449999999998E-2</v>
+        <v>6.4132330000000001E-2</v>
       </c>
       <c r="I70" s="1">
-        <v>1.910158</v>
-      </c>
-      <c r="J70" s="1">
-        <v>5.1372879999999999</v>
-      </c>
-      <c r="K70" s="1">
-        <v>17.475719999999999</v>
-      </c>
-      <c r="L70" s="1">
-        <v>40.315620000000003</v>
-      </c>
-      <c r="M70" s="1">
-        <v>12.28665</v>
-      </c>
-      <c r="N70" s="1">
-        <v>16.705300000000001</v>
-      </c>
-      <c r="O70" s="1">
-        <v>999.20249999999999</v>
-      </c>
-      <c r="P70" s="1">
-        <v>46.90462179</v>
-      </c>
-      <c r="Q70" s="1">
-        <v>-91.036292599999996</v>
-      </c>
-      <c r="R70" s="1"/>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
-        <v>45098.548726851855</v>
-      </c>
-      <c r="B71" s="1">
-        <v>40.617579999999997</v>
-      </c>
-      <c r="C71" s="1">
-        <v>10.760949999999999</v>
-      </c>
-      <c r="D71" s="1">
-        <v>61.289569999999998</v>
-      </c>
-      <c r="E71" s="1">
-        <v>98.740179999999995</v>
-      </c>
-      <c r="F71" s="1">
-        <v>4.5123459999999997E-2</v>
-      </c>
-      <c r="G71" s="1">
-        <v>1</v>
-      </c>
-      <c r="H71" s="1">
-        <v>6.4132330000000001E-2</v>
-      </c>
-      <c r="I71" s="1">
         <v>1.9253370000000001</v>
       </c>
     </row>
